--- a/Projects/CCRU/Data/KPIs_2019/Contract Execution 2019.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/Contract Execution 2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MT - Hyper-Super" sheetId="1" state="visible" r:id="rId2"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="128">
   <si>
     <t xml:space="preserve">Action</t>
   </si>
@@ -401,9 +401,6 @@
   </si>
   <si>
     <t xml:space="preserve">PTR_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,3</t>
   </si>
   <si>
     <t xml:space="preserve">PTR_2020</t>
@@ -782,7 +779,7 @@
   </sheetPr>
   <dimension ref="1:23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -795,30 +792,30 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="70.8056680161943"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="71.3400809716599"/>
     <col collapsed="false" hidden="false" max="33" min="32" style="4" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="36" min="34" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.10526315789474"/>
@@ -2437,30 +2434,30 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="52.8097165991903"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="72.7327935222672"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="73.3765182186235"/>
     <col collapsed="false" hidden="false" max="1023" min="32" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="8.57085020242915"/>
   </cols>
@@ -4060,28 +4057,28 @@
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="70.8056680161943"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="71.3400809716599"/>
     <col collapsed="false" hidden="false" max="36" min="32" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="9.10526315789474"/>
@@ -4846,36 +4843,36 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="72.7327935222672"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="73.3765182186235"/>
     <col collapsed="false" hidden="false" max="36" min="32" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="8.57085020242915"/>
@@ -5701,8 +5698,8 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5716,28 +5713,28 @@
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="70.8056680161943"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="71.3400809716599"/>
     <col collapsed="false" hidden="false" max="1023" min="32" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="9.10526315789474"/>
   </cols>
@@ -5981,7 +5978,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="11" t="s">
@@ -9136,7 +9133,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>43</v>
@@ -10192,7 +10189,7 @@
     </row>
     <row r="8" s="1" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="10" t="n">
         <v>7</v>
@@ -10211,7 +10208,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="11" t="s">
@@ -10335,7 +10332,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>79</v>
@@ -10345,7 +10342,7 @@
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O10" s="11" t="s">
         <v>50</v>
@@ -10410,7 +10407,7 @@
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O11" s="11" t="s">
         <v>50</v>
@@ -10463,7 +10460,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>79</v>
@@ -10473,7 +10470,7 @@
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O12" s="11" t="s">
         <v>50</v>
@@ -10520,7 +10517,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="11" t="s">
@@ -10927,30 +10924,30 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="69.0931174089069"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="69.7327935222672"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="33.4210526315789"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="53.3441295546559"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="53.7732793522267"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="72.7327935222672"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="73.3765182186235"/>
     <col collapsed="false" hidden="false" max="36" min="32" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="8.57085020242915"/>
@@ -11062,7 +11059,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>34</v>
@@ -11122,7 +11119,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>34</v>
@@ -11182,7 +11179,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>43</v>
@@ -11237,7 +11234,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>43</v>
@@ -11304,7 +11301,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>43</v>
@@ -11371,7 +11368,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>43</v>
@@ -11438,7 +11435,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>43</v>
@@ -11451,7 +11448,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="11" t="s">
@@ -11493,7 +11490,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>43</v>
@@ -11556,7 +11553,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>43</v>
@@ -11619,7 +11616,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>43</v>
@@ -11638,7 +11635,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>79</v>
@@ -11648,7 +11645,7 @@
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O11" s="11" t="s">
         <v>50</v>
@@ -11684,7 +11681,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>43</v>
@@ -11703,7 +11700,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>79</v>
@@ -11713,7 +11710,7 @@
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O12" s="11" t="s">
         <v>50</v>
@@ -11749,7 +11746,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>43</v>
@@ -11768,7 +11765,7 @@
         <v>5</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>79</v>
@@ -11778,7 +11775,7 @@
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O13" s="11" t="s">
         <v>50</v>

--- a/Projects/CCRU/Data/KPIs_2019/Contract Execution 2019.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/Contract Execution 2019.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="127">
   <si>
     <t xml:space="preserve">Action</t>
   </si>
@@ -401,9 +401,6 @@
   </si>
   <si>
     <t xml:space="preserve">PTR_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTR_2020</t>
   </si>
   <si>
     <t xml:space="preserve">Delete</t>
@@ -792,30 +789,30 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="71.3400809716599"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="71.9838056680162"/>
     <col collapsed="false" hidden="false" max="33" min="32" style="4" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="36" min="34" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.10526315789474"/>
@@ -2434,30 +2431,30 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="53.2388663967611"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="73.3765182186235"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="74.0202429149798"/>
     <col collapsed="false" hidden="false" max="1023" min="32" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="8.57085020242915"/>
   </cols>
@@ -4057,28 +4054,28 @@
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="71.3400809716599"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="71.9838056680162"/>
     <col collapsed="false" hidden="false" max="36" min="32" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="9.10526315789474"/>
@@ -4843,36 +4840,36 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="39.8502024291498"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="40.17004048583"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="73.3765182186235"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="74.0202429149798"/>
     <col collapsed="false" hidden="false" max="36" min="32" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="8.57085020242915"/>
@@ -5699,7 +5696,7 @@
   <dimension ref="1:65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5713,28 +5710,28 @@
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="71.3400809716599"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="71.9838056680162"/>
     <col collapsed="false" hidden="false" max="1023" min="32" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="9.10526315789474"/>
   </cols>
@@ -9133,7 +9130,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>43</v>
@@ -10189,7 +10186,7 @@
     </row>
     <row r="8" s="1" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="10" t="n">
         <v>7</v>
@@ -10208,7 +10205,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="11" t="s">
@@ -10332,7 +10329,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>79</v>
@@ -10342,7 +10339,7 @@
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O10" s="11" t="s">
         <v>50</v>
@@ -10407,7 +10404,7 @@
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O11" s="11" t="s">
         <v>50</v>
@@ -10460,7 +10457,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>79</v>
@@ -10470,7 +10467,7 @@
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O12" s="11" t="s">
         <v>50</v>
@@ -10517,7 +10514,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="11" t="s">
@@ -10924,30 +10921,30 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="69.7327935222672"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="70.3765182186235"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="33.7408906882591"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="53.7732793522267"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="54.2024291497976"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="73.3765182186235"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="74.0202429149798"/>
     <col collapsed="false" hidden="false" max="36" min="32" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="8.57085020242915"/>
@@ -11059,7 +11056,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>34</v>
@@ -11119,7 +11116,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>34</v>
@@ -11179,7 +11176,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>43</v>
@@ -11234,7 +11231,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>43</v>
@@ -11301,7 +11298,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>43</v>
@@ -11368,7 +11365,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>43</v>
@@ -11435,7 +11432,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>43</v>
@@ -11448,7 +11445,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="11" t="s">
@@ -11490,7 +11487,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>43</v>
@@ -11553,7 +11550,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>43</v>
@@ -11616,7 +11613,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>43</v>
@@ -11635,7 +11632,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>79</v>
@@ -11645,7 +11642,7 @@
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O11" s="11" t="s">
         <v>50</v>
@@ -11681,7 +11678,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>43</v>
@@ -11700,7 +11697,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>79</v>
@@ -11710,7 +11707,7 @@
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O12" s="11" t="s">
         <v>50</v>
@@ -11746,7 +11743,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>43</v>
@@ -11765,7 +11762,7 @@
         <v>5</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>79</v>
@@ -11775,7 +11772,7 @@
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O13" s="11" t="s">
         <v>50</v>

--- a/Projects/CCRU/Data/KPIs_2019/Contract Execution 2019.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/Contract Execution 2019.xlsx
@@ -340,7 +340,7 @@
     <t xml:space="preserve">CV_2019</t>
   </si>
   <si>
-    <t xml:space="preserve">QSR_2019/FF_2019/Cinema_2019</t>
+    <t xml:space="preserve">QSR_2019</t>
   </si>
   <si>
     <t xml:space="preserve">2,3,4</t>
@@ -862,30 +862,30 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="3" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="72.0890688259109"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="72.7327935222672"/>
     <col collapsed="false" hidden="false" max="32" min="31" style="4" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="35" min="33" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1022" min="36" style="2" width="9.10526315789474"/>
@@ -2503,30 +2503,30 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="53.3441295546559"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="53.7732793522267"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.3157894736842"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="73.8056680161943"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="74.4493927125506"/>
     <col collapsed="false" hidden="false" max="1023" min="32" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="8.57085020242915"/>
   </cols>
@@ -4115,35 +4115,35 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="36.3117408906883"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="72.0890688259109"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="72.7327935222672"/>
     <col collapsed="false" hidden="false" max="36" min="32" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="9.10526315789474"/>
@@ -9650,7 +9650,7 @@
       <c r="B9" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="11" t="s">
         <v>96</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -11922,36 +11922,36 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="40.17004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.3157894736842"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="73.8056680161943"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="74.4493927125506"/>
     <col collapsed="false" hidden="false" max="36" min="32" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="8.57085020242915"/>
@@ -20641,42 +20641,42 @@
   <dimension ref="1:65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="72.0890688259109"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="72.7327935222672"/>
     <col collapsed="false" hidden="false" max="1023" min="32" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="9.10526315789474"/>
   </cols>
@@ -26862,30 +26862,30 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="70.3765182186235"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="70.9109311740891"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="34.0647773279352"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="54.2024291497976"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="54.6315789473684"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.3157894736842"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="73.8056680161943"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="74.4493927125506"/>
     <col collapsed="false" hidden="false" max="36" min="32" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="8.57085020242915"/>

--- a/Projects/CCRU/Data/KPIs_2019/Contract Execution 2019.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/Contract Execution 2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MT - Hyper-Super" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,29 +17,29 @@
     <sheet name="IC - HoReCa ALL" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AG$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AG$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AG$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AG$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AG$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AG$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AG$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AG$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AG$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AG$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AG$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AG$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AG$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AG$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AG$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AG$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AG$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AG$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AG$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AG$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AG$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AG$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AG$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="129">
   <si>
     <t xml:space="preserve">Action</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t xml:space="preserve">Form factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Category</t>
   </si>
   <si>
     <t xml:space="preserve">Brand</t>
@@ -203,10 +206,13 @@
     <t xml:space="preserve">number of scenes</t>
   </si>
   <si>
+    <t xml:space="preserve">SSD</t>
+  </si>
+  <si>
     <t xml:space="preserve">OR</t>
   </si>
   <si>
-    <t xml:space="preserve">LOCATION_TYPE</t>
+    <t xml:space="preserve">CAT</t>
   </si>
   <si>
     <t xml:space="preserve">SSD Displays, Mixability Displays</t>
@@ -215,10 +221,19 @@
     <t xml:space="preserve">Energy Displays</t>
   </si>
   <si>
+    <t xml:space="preserve">LOCATION_TYPE</t>
+  </si>
+  <si>
     <t xml:space="preserve">NCB Displays</t>
   </si>
   <si>
     <t xml:space="preserve">Juice Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Displays, Mixability Displays</t>
   </si>
   <si>
     <t xml:space="preserve">SSD Promo Displays</t>
@@ -305,9 +320,6 @@
     <t xml:space="preserve">SOS</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD</t>
-  </si>
-  <si>
     <t xml:space="preserve">MAN in CAT</t>
   </si>
   <si>
@@ -333,9 +345,6 @@
   </si>
   <si>
     <t xml:space="preserve">Juice Shelf Share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juices</t>
   </si>
   <si>
     <t xml:space="preserve">CV_2019</t>
@@ -475,13 +484,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -634,7 +643,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -646,7 +659,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -678,7 +691,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -704,10 +717,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -742,7 +751,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -828,8 +837,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="C1:AG23" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <tableColumns count="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="C1:AH23" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="32">
     <tableColumn id="1" name="Channel"/>
     <tableColumn id="2" name="KPI Set Type"/>
     <tableColumn id="3" name="KPI ID"/>
@@ -846,21 +855,22 @@
     <tableColumn id="14" name="Type"/>
     <tableColumn id="15" name="Size"/>
     <tableColumn id="16" name="Form factor"/>
-    <tableColumn id="17" name="Brand"/>
-    <tableColumn id="18" name="Scenes to include"/>
-    <tableColumn id="19" name="Scenes to exclude"/>
-    <tableColumn id="20" name="Locations to include"/>
-    <tableColumn id="21" name="Locations to exclude"/>
-    <tableColumn id="22" name="Sub locations to include"/>
-    <tableColumn id="23" name="Sub locations to exclude"/>
-    <tableColumn id="24" name="KPI Weight"/>
-    <tableColumn id="25" name="Scene"/>
-    <tableColumn id="26" name="score_func"/>
-    <tableColumn id="27" name="score_min"/>
-    <tableColumn id="28" name="score_max"/>
-    <tableColumn id="29" name="Comments"/>
-    <tableColumn id="30" name="Column1"/>
-    <tableColumn id="31" name="Column2"/>
+    <tableColumn id="17" name="Product Category"/>
+    <tableColumn id="18" name="Brand"/>
+    <tableColumn id="19" name="Scenes to include"/>
+    <tableColumn id="20" name="Scenes to exclude"/>
+    <tableColumn id="21" name="Locations to include"/>
+    <tableColumn id="22" name="Locations to exclude"/>
+    <tableColumn id="23" name="Sub locations to include"/>
+    <tableColumn id="24" name="Sub locations to exclude"/>
+    <tableColumn id="25" name="KPI Weight"/>
+    <tableColumn id="26" name="Scene"/>
+    <tableColumn id="27" name="score_func"/>
+    <tableColumn id="28" name="score_min"/>
+    <tableColumn id="29" name="score_max"/>
+    <tableColumn id="30" name="Comments"/>
+    <tableColumn id="31" name="Column1"/>
+    <tableColumn id="32" name="Column2"/>
   </tableColumns>
 </table>
 </file>
@@ -870,49 +880,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMI23"/>
+  <dimension ref="1:23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8:W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="47.3481781376518"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="3" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="73.3765182186235"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="4" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="35" min="33" style="4" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1022" min="36" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1023" min="1023" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.12550607287449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.86234817813765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="8.44939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.6558704453441"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.2955465587045"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.36437246963563"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="18.7368421052632"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.83400809716599"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.6518218623482"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="26.3805668016194"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.68421052631579"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.76923076923077"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.1821862348178"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="20.502024291498"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.76923076923077"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6842105263158"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="16.9757085020243"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="6.39271255060729"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.417004048583"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="17.7085020242915"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="28.2955465587045"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="20.2105263157895"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="23.587044534413"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="11.0971659919028"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="6.53441295546559"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.3603238866397"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="10.6558704453441"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="4" width="63.4291497975709"/>
+    <col collapsed="false" hidden="false" max="34" min="33" style="4" width="8.44939271255061"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="4" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -991,10 +1002,10 @@
       <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
       <c r="AB1" s="5" t="s">
@@ -1009,14 +1020,17 @@
       <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
       <c r="AG1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="8"/>
+      <c r="AH1" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
     </row>
     <row r="2" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
@@ -1024,13 +1038,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="11" t="n">
         <v>0</v>
@@ -1041,17 +1055,17 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
@@ -1062,23 +1076,24 @@
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="12" t="n">
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="12" t="n">
         <v>0.33</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11" t="n">
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF2" s="10"/>
+      <c r="AF2" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="AG2" s="10"/>
-      <c r="AMI2" s="1"/>
+      <c r="AH2" s="10"/>
+      <c r="AMJ2" s="1"/>
     </row>
     <row r="3" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
@@ -1086,13 +1101,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="11" t="n">
         <v>0</v>
@@ -1103,17 +1118,17 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
@@ -1124,23 +1139,24 @@
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="12" t="n">
         <v>0.67</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11" t="n">
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF3" s="10"/>
+      <c r="AF3" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="AG3" s="10"/>
-      <c r="AMI3" s="1"/>
+      <c r="AH3" s="10"/>
+      <c r="AMJ3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="13"/>
@@ -1148,10 +1164,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="11" t="n">
         <v>1</v>
@@ -1161,21 +1177,21 @@
         <v>2</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="14"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
@@ -1186,20 +1202,21 @@
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
-      <c r="Z4" s="12" t="n">
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="12" t="n">
         <v>0.403</v>
       </c>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="AD4" s="11"/>
-      <c r="AE4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF4" s="10"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="13"/>
@@ -1207,10 +1224,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" s="11" t="n">
         <v>2</v>
@@ -1226,49 +1243,52 @@
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L5" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M5" s="10"/>
-      <c r="N5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="11" t="s">
+      <c r="N5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="15" t="s">
+      <c r="O5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="W5" s="11"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11" t="n">
+      <c r="P5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF5" s="10"/>
+      <c r="AF5" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13"/>
@@ -1276,10 +1296,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="11" t="n">
         <v>4</v>
@@ -1295,60 +1315,61 @@
         <v>1</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L6" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="W6" s="11"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11" t="n">
+      <c r="T6" s="11"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF6" s="10"/>
+      <c r="AF6" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="10" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="11" t="n">
         <v>5</v>
@@ -1364,49 +1385,50 @@
         <v>1</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L7" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="W7" s="11"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11" t="n">
+      <c r="T7" s="11"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF7" s="10"/>
+      <c r="AF7" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13"/>
@@ -1414,10 +1436,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="11" t="n">
         <v>6</v>
@@ -1433,49 +1455,52 @@
         <v>1</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M8" s="10"/>
-      <c r="N8" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="W8" s="11"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11" t="n">
+      <c r="N8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF8" s="10"/>
+      <c r="AF8" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13"/>
@@ -1483,10 +1508,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="11" t="n">
         <v>7</v>
@@ -1502,49 +1527,50 @@
         <v>1</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L9" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11" t="n">
+      <c r="T9" s="11"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11" t="n">
         <v>701</v>
       </c>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11" t="n">
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF9" s="10"/>
+      <c r="AF9" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13"/>
@@ -1552,10 +1578,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="11" t="n">
         <v>8</v>
@@ -1571,49 +1597,50 @@
         <v>1</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L10" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11" t="n">
+      <c r="T10" s="11"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11" t="n">
         <v>703</v>
       </c>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11" t="n">
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF10" s="10"/>
+      <c r="AF10" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="13"/>
@@ -1621,10 +1648,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="11" t="n">
         <v>9</v>
@@ -1640,49 +1667,50 @@
         <v>1</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L11" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11" t="n">
+      <c r="T11" s="11"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11" t="n">
         <v>704</v>
       </c>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11" t="n">
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF11" s="10"/>
+      <c r="AF11" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="13"/>
@@ -1690,10 +1718,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="11" t="n">
         <v>10</v>
@@ -1709,49 +1737,50 @@
         <v>1</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L12" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11" t="n">
+      <c r="T12" s="11"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11" t="n">
         <v>705</v>
       </c>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11" t="n">
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF12" s="10"/>
+      <c r="AF12" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="13"/>
@@ -1759,10 +1788,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="11" t="n">
         <v>11</v>
@@ -1778,49 +1807,50 @@
         <v>1</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11" t="n">
+      <c r="T13" s="11"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11" t="n">
         <v>702</v>
       </c>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11" t="n">
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF13" s="10"/>
+      <c r="AF13" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="13"/>
@@ -1828,10 +1858,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="11" t="n">
         <v>12</v>
@@ -1841,45 +1871,46 @@
         <v>2</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="10"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
-      <c r="Z14" s="12" t="n">
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="12" t="n">
         <v>0.194</v>
       </c>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF14" s="10"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="13"/>
@@ -1887,10 +1918,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="11" t="n">
         <v>13</v>
@@ -1906,49 +1937,50 @@
         <v>12</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L15" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M15" s="10"/>
       <c r="N15" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="W15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11" t="n">
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF15" s="10"/>
+      <c r="AF15" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13"/>
@@ -1956,10 +1988,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="11" t="n">
         <v>14</v>
@@ -1975,60 +2007,61 @@
         <v>12</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L16" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="W16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11" t="n">
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF16" s="10"/>
+      <c r="AF16" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="10" t="n">
         <v>16</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="11" t="n">
         <v>15</v>
@@ -2044,20 +2077,20 @@
         <v>12</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L17" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M17" s="10"/>
       <c r="N17" s="11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
@@ -2069,20 +2102,21 @@
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11" t="n">
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF17" s="10"/>
+      <c r="AF17" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="13"/>
@@ -2090,10 +2124,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="11" t="n">
         <v>16</v>
@@ -2103,45 +2137,46 @@
         <v>2</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="10"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
-      <c r="Z18" s="12" t="n">
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="12" t="n">
         <v>0.403</v>
       </c>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF18" s="10"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="13"/>
@@ -2149,10 +2184,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" s="11" t="n">
         <v>17</v>
@@ -2168,49 +2203,50 @@
         <v>16</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="L19" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="11" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
-      <c r="T19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11" t="n">
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF19" s="10"/>
+      <c r="AF19" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="13"/>
@@ -2218,10 +2254,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20" s="11" t="n">
         <v>18</v>
@@ -2237,49 +2273,50 @@
         <v>16</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>83</v>
+        <v>91</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="L20" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
-      <c r="T20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11" t="n">
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF20" s="10"/>
+      <c r="AF20" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="13"/>
@@ -2287,10 +2324,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" s="11" t="n">
         <v>19</v>
@@ -2306,49 +2343,50 @@
         <v>16</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>83</v>
+        <v>93</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="L21" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
-      <c r="T21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11" t="n">
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE21" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF21" s="10"/>
+      <c r="AF21" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="13"/>
@@ -2356,10 +2394,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E22" s="11" t="n">
         <v>20</v>
@@ -2375,49 +2413,50 @@
         <v>16</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>83</v>
+        <v>95</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="L22" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
-      <c r="T22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11" t="n">
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE22" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF22" s="10"/>
+      <c r="AF22" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
@@ -2425,10 +2464,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23" s="11" t="n">
         <v>21</v>
@@ -2444,49 +2483,50 @@
         <v>16</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>83</v>
+        <v>97</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="L23" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M23" s="11"/>
       <c r="N23" s="11" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
-      <c r="T23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11" t="n">
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE23" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF23" s="10"/>
+      <c r="AF23" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2507,47 +2547,47 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:23"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8:W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="54.2024291497976"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="75.0890688259109"/>
-    <col collapsed="false" hidden="false" max="1023" min="32" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.12550607287449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.86234817813765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="8.44939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.6558704453441"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.2955465587045"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.36437246963563"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="18.7368421052632"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.83400809716599"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.6518218623482"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="26.3805668016194"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.68421052631579"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.76923076923077"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.1821862348178"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="20.502024291498"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.76923076923077"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6842105263158"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="16.9757085020243"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="6.39271255060729"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.417004048583"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="17.7085020242915"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="28.2955465587045"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="20.2105263157895"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="23.587044534413"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="3" width="11.0971659919028"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="6.53441295546559"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.3603238866397"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="10.6558704453441"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="63.4291497975709"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="2" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2590,7 +2630,7 @@
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="20" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -2626,10 +2666,10 @@
       <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
       <c r="AB1" s="5" t="s">
@@ -2644,9 +2684,12 @@
       <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AI1" s="20"/>
+      <c r="AF1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AJ1" s="21"/>
     </row>
     <row r="2" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
@@ -2654,13 +2697,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="11" t="n">
         <v>0</v>
@@ -2671,17 +2714,17 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
@@ -2692,21 +2735,21 @@
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="12" t="n">
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="12" t="n">
         <v>0.34</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11" t="n">
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AMJ2" s="1"/>
+      <c r="AF2" s="11" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
@@ -2714,13 +2757,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="11" t="n">
         <v>0</v>
@@ -2731,17 +2774,17 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
@@ -2752,21 +2795,21 @@
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="12" t="n">
         <v>0.66</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11" t="n">
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AMJ3" s="1"/>
+      <c r="AF3" s="11" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="13"/>
@@ -2774,10 +2817,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="11" t="n">
         <v>1</v>
@@ -2787,14 +2830,14 @@
         <v>2</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -2810,20 +2853,21 @@
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
-      <c r="Z4" s="12" t="n">
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="12" t="n">
         <v>0.364</v>
       </c>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="AD4" s="11"/>
-      <c r="AE4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
     </row>
     <row r="5" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="13"/>
@@ -2831,10 +2875,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" s="11" t="n">
         <v>2</v>
@@ -2850,49 +2894,52 @@
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L5" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M5" s="10"/>
-      <c r="N5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="11" t="s">
+      <c r="N5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="15" t="s">
+      <c r="O5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="W5" s="11"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11" t="n">
+      <c r="P5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
+      <c r="AF5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13"/>
@@ -2900,10 +2947,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="11" t="n">
         <v>4</v>
@@ -2919,60 +2966,61 @@
         <v>1</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L6" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="W6" s="11"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11" t="n">
+      <c r="T6" s="11"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
+      <c r="AF6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
     </row>
     <row r="7" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="10" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="11" t="n">
         <v>5</v>
@@ -2988,10 +3036,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L7" s="11" t="n">
         <v>1</v>
@@ -2999,38 +3047,39 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="W7" s="11"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11" t="n">
+      <c r="T7" s="11"/>
+      <c r="U7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="21"/>
+      <c r="AF7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13"/>
@@ -3038,10 +3087,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="11" t="n">
         <v>6</v>
@@ -3057,49 +3106,52 @@
         <v>1</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M8" s="10"/>
-      <c r="N8" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="W8" s="11"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11" t="n">
+      <c r="N8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
+      <c r="AF8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13"/>
@@ -3107,10 +3159,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="11" t="n">
         <v>7</v>
@@ -3126,49 +3178,50 @@
         <v>1</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L9" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11" t="n">
+      <c r="T9" s="11"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11" t="n">
         <v>701</v>
       </c>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11" t="n">
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
+      <c r="AF9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13"/>
@@ -3176,10 +3229,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="11" t="n">
         <v>8</v>
@@ -3195,49 +3248,50 @@
         <v>1</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L10" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11" t="n">
+      <c r="T10" s="11"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11" t="n">
         <v>703</v>
       </c>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11" t="n">
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
+      <c r="AF10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="13"/>
@@ -3245,10 +3299,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="11" t="n">
         <v>9</v>
@@ -3264,49 +3318,50 @@
         <v>1</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L11" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11" t="n">
+      <c r="T11" s="11"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11" t="n">
         <v>704</v>
       </c>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11" t="n">
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
+      <c r="AF11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="13"/>
@@ -3314,10 +3369,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="11" t="n">
         <v>10</v>
@@ -3333,49 +3388,50 @@
         <v>1</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L12" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11" t="n">
+      <c r="T12" s="11"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11" t="n">
         <v>705</v>
       </c>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11" t="n">
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
+      <c r="AF12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="13"/>
@@ -3383,10 +3439,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="11" t="n">
         <v>11</v>
@@ -3402,49 +3458,50 @@
         <v>1</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11" t="n">
+      <c r="T13" s="11"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11" t="n">
         <v>702</v>
       </c>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11" t="n">
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21"/>
+      <c r="AF13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="13"/>
@@ -3452,10 +3509,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="11" t="n">
         <v>12</v>
@@ -3465,14 +3522,14 @@
         <v>2</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -3482,26 +3539,27 @@
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="10"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
-      <c r="Z14" s="12" t="n">
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="12" t="n">
         <v>0.303</v>
       </c>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="21"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
     </row>
     <row r="15" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="13"/>
@@ -3509,10 +3567,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="11" t="n">
         <v>13</v>
@@ -3528,49 +3586,50 @@
         <v>12</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L15" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M15" s="10"/>
       <c r="N15" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="W15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11" t="n">
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="21"/>
+      <c r="AF15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
     </row>
     <row r="16" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13"/>
@@ -3578,10 +3637,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="11" t="n">
         <v>14</v>
@@ -3597,60 +3656,61 @@
         <v>12</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L16" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="W16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11" t="n">
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21"/>
+      <c r="AF16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="10" t="n">
         <v>16</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="11" t="n">
         <v>15</v>
@@ -3666,20 +3726,20 @@
         <v>12</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L17" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M17" s="10"/>
       <c r="N17" s="11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
@@ -3691,20 +3751,21 @@
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11" t="n">
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
+      <c r="AF17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
     </row>
     <row r="18" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="13"/>
@@ -3712,10 +3773,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="11" t="n">
         <v>16</v>
@@ -3725,14 +3786,14 @@
         <v>2</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
@@ -3742,26 +3803,27 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="10"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
-      <c r="Z18" s="12" t="n">
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="12" t="n">
         <v>0.333</v>
       </c>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="21"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
     </row>
     <row r="19" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="13"/>
@@ -3769,10 +3831,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" s="11" t="n">
         <v>17</v>
@@ -3788,49 +3850,50 @@
         <v>16</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="L19" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="11" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
-      <c r="T19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11" t="n">
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="21"/>
+      <c r="AF19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="13"/>
@@ -3838,10 +3901,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20" s="11" t="n">
         <v>18</v>
@@ -3857,49 +3920,50 @@
         <v>16</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>83</v>
+        <v>91</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="L20" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
-      <c r="T20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11" t="n">
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF20" s="21"/>
-      <c r="AG20" s="21"/>
+      <c r="AF20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="22"/>
     </row>
     <row r="21" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="13"/>
@@ -3907,10 +3971,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" s="11" t="n">
         <v>19</v>
@@ -3926,49 +3990,50 @@
         <v>16</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>83</v>
+        <v>93</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="L21" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
-      <c r="T21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11" t="n">
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE21" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF21" s="21"/>
-      <c r="AG21" s="21"/>
+      <c r="AF21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="13"/>
@@ -3976,10 +4041,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E22" s="11" t="n">
         <v>20</v>
@@ -3995,49 +4060,50 @@
         <v>16</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>83</v>
+        <v>95</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="L22" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
-      <c r="T22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11" t="n">
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE22" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF22" s="21"/>
-      <c r="AG22" s="21"/>
+      <c r="AF22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
@@ -4045,10 +4111,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23" s="11" t="n">
         <v>21</v>
@@ -4064,49 +4130,50 @@
         <v>16</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>83</v>
+        <v>97</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="L23" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M23" s="11"/>
       <c r="N23" s="11" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
-      <c r="T23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11" t="n">
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AE23" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="21"/>
+      <c r="AF23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4126,43 +4193,43 @@
   </sheetPr>
   <dimension ref="1:10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="1" sqref="N8:W8 H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="73.3765182186235"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="74.0202429149798"/>
     <col collapsed="false" hidden="false" max="36" min="32" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="9.10526315789474"/>
@@ -4224,43 +4291,43 @@
         <v>17</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF1" s="8"/>
       <c r="AG1" s="8"/>
@@ -4274,13 +4341,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="11" t="n">
         <v>0</v>
@@ -4291,17 +4358,17 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
@@ -4317,14 +4384,14 @@
       </c>
       <c r="AA2" s="10"/>
       <c r="AB2" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC2" s="11"/>
       <c r="AD2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE2" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AMJ2" s="1"/>
     </row>
@@ -4334,13 +4401,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="11" t="n">
         <v>0</v>
@@ -4351,17 +4418,17 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
@@ -4377,14 +4444,14 @@
       </c>
       <c r="AA3" s="10"/>
       <c r="AB3" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC3" s="11"/>
       <c r="AD3" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE3" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AMJ3" s="1"/>
     </row>
@@ -4394,10 +4461,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="11" t="n">
         <v>1</v>
@@ -4407,14 +4474,14 @@
         <v>2</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -4435,12 +4502,12 @@
       </c>
       <c r="AA4" s="10"/>
       <c r="AB4" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF4" s="0"/>
       <c r="AG4" s="0"/>
@@ -5442,10 +5509,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" s="11" t="n">
         <v>2</v>
@@ -5461,23 +5528,23 @@
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L5" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
@@ -5485,22 +5552,22 @@
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
-      <c r="Z5" s="17"/>
+      <c r="Z5" s="18"/>
       <c r="AA5" s="10"/>
       <c r="AB5" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC5" s="10"/>
       <c r="AD5" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE5" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF5" s="0"/>
       <c r="AG5" s="0"/>
@@ -6502,10 +6569,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="11" t="n">
         <v>3</v>
@@ -6521,23 +6588,23 @@
         <v>1</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L6" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -6545,22 +6612,22 @@
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
-      <c r="Z6" s="17"/>
+      <c r="Z6" s="18"/>
       <c r="AA6" s="10"/>
       <c r="AB6" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC6" s="10"/>
       <c r="AD6" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE6" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF6" s="0"/>
       <c r="AG6" s="0"/>
@@ -7562,10 +7629,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="11" t="n">
         <v>4</v>
@@ -7581,46 +7648,46 @@
         <v>1</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L7" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
-      <c r="Z7" s="17"/>
+      <c r="Z7" s="18"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AC7" s="10"/>
       <c r="AD7" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE7" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF7" s="0"/>
       <c r="AG7" s="0"/>
@@ -8622,10 +8689,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="11" t="n">
         <v>5</v>
@@ -8634,15 +8701,15 @@
       <c r="G8" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="22" t="s">
-        <v>102</v>
+      <c r="H8" s="23" t="s">
+        <v>105</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -8663,12 +8730,12 @@
       </c>
       <c r="AA8" s="10"/>
       <c r="AB8" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
       <c r="AE8" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF8" s="0"/>
       <c r="AG8" s="0"/>
@@ -9664,87 +9731,87 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" s="30" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24" t="n">
+    <row r="9" s="31" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="22" t="n">
+        <v>99</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="F9" s="25" t="n">
+      <c r="F9" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="25" t="n">
+      <c r="G9" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25" t="n">
+      <c r="H9" s="26"/>
+      <c r="I9" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="J9" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="25" t="n">
+      <c r="J9" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="O9" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="25" t="n">
+      <c r="M9" s="28"/>
+      <c r="N9" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="AE9" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AMJ9" s="31"/>
+      <c r="AE9" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AMJ9" s="32"/>
     </row>
     <row r="10" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16"/>
-      <c r="B10" s="24" t="n">
+      <c r="A10" s="17"/>
+      <c r="B10" s="25" t="n">
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="22" t="n">
+        <v>44</v>
+      </c>
+      <c r="E10" s="23" t="n">
         <v>7</v>
       </c>
       <c r="F10" s="11" t="n">
@@ -9757,21 +9824,21 @@
       <c r="I10" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>78</v>
+      <c r="J10" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="L10" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
@@ -9786,14 +9853,14 @@
       <c r="Z10" s="12"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AC10" s="10"/>
       <c r="AD10" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE10" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -9815,7 +9882,7 @@
   <dimension ref="1:11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+      <selection pane="topLeft" activeCell="J11" activeCellId="1" sqref="N8:W8 J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9885,43 +9952,43 @@
         <v>17</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF1" s="8"/>
       <c r="AG1" s="8"/>
@@ -9935,13 +10002,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="11" t="n">
         <v>0</v>
@@ -9952,17 +10019,17 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
@@ -9978,14 +10045,14 @@
       </c>
       <c r="AA2" s="10"/>
       <c r="AB2" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC2" s="11"/>
       <c r="AD2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE2" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AMJ2" s="1"/>
     </row>
@@ -9995,13 +10062,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="11" t="n">
         <v>0</v>
@@ -10012,17 +10079,17 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
@@ -10038,14 +10105,14 @@
       </c>
       <c r="AA3" s="10"/>
       <c r="AB3" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC3" s="11"/>
       <c r="AD3" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE3" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AMJ3" s="1"/>
     </row>
@@ -10055,10 +10122,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="11" t="n">
         <v>1</v>
@@ -10068,14 +10135,14 @@
         <v>2</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -10096,12 +10163,12 @@
       </c>
       <c r="AA4" s="10"/>
       <c r="AB4" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF4" s="0"/>
       <c r="AG4" s="0"/>
@@ -11103,10 +11170,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" s="11" t="n">
         <v>2</v>
@@ -11122,23 +11189,23 @@
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L5" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
@@ -11146,22 +11213,22 @@
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
-      <c r="Z5" s="17"/>
+      <c r="Z5" s="18"/>
       <c r="AA5" s="10"/>
       <c r="AB5" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC5" s="10"/>
       <c r="AD5" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE5" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF5" s="0"/>
       <c r="AG5" s="0"/>
@@ -12163,10 +12230,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="11" t="n">
         <v>3</v>
@@ -12182,23 +12249,23 @@
         <v>1</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L6" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -12206,22 +12273,22 @@
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
-      <c r="Z6" s="17"/>
+      <c r="Z6" s="18"/>
       <c r="AA6" s="10"/>
       <c r="AB6" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC6" s="10"/>
       <c r="AD6" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE6" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF6" s="0"/>
       <c r="AG6" s="0"/>
@@ -13223,10 +13290,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="11" t="n">
         <v>4</v>
@@ -13242,46 +13309,46 @@
         <v>1</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L7" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
-      <c r="Z7" s="17"/>
+      <c r="Z7" s="18"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AC7" s="10"/>
       <c r="AD7" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE7" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF7" s="0"/>
       <c r="AG7" s="0"/>
@@ -14283,10 +14350,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="11" t="n">
         <v>5</v>
@@ -14295,15 +14362,15 @@
       <c r="G8" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="22" t="s">
-        <v>106</v>
+      <c r="H8" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -14324,12 +14391,12 @@
       </c>
       <c r="AA8" s="10"/>
       <c r="AB8" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
       <c r="AE8" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF8" s="0"/>
       <c r="AG8" s="0"/>
@@ -15327,16 +15394,16 @@
     </row>
     <row r="9" s="1" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13"/>
-      <c r="B9" s="24" t="n">
+      <c r="B9" s="25" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="22" t="n">
+        <v>44</v>
+      </c>
+      <c r="E9" s="23" t="n">
         <v>6</v>
       </c>
       <c r="F9" s="11" t="n">
@@ -15349,21 +15416,21 @@
       <c r="I9" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="J9" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>78</v>
+      <c r="J9" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="L9" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
@@ -15378,28 +15445,28 @@
       <c r="Z9" s="12"/>
       <c r="AA9" s="10"/>
       <c r="AB9" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AC9" s="10"/>
       <c r="AD9" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE9" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16"/>
-      <c r="B10" s="24" t="n">
+      <c r="A10" s="17"/>
+      <c r="B10" s="25" t="n">
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="22" t="n">
+        <v>44</v>
+      </c>
+      <c r="E10" s="23" t="n">
         <v>7</v>
       </c>
       <c r="F10" s="11" t="n">
@@ -15412,21 +15479,21 @@
       <c r="I10" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>78</v>
+      <c r="J10" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="L10" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
@@ -15441,14 +15508,14 @@
       <c r="Z10" s="12"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AC10" s="10"/>
       <c r="AD10" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE10" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF10" s="0"/>
       <c r="AG10" s="0"/>
@@ -16444,74 +16511,74 @@
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" s="30" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32"/>
-      <c r="B11" s="24" t="n">
+    <row r="11" s="31" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="33"/>
+      <c r="B11" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="22" t="n">
+      <c r="C11" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="F11" s="25" t="n">
+      <c r="F11" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="25" t="n">
+      <c r="G11" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25" t="n">
+      <c r="H11" s="26"/>
+      <c r="I11" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="J11" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="25" t="n">
+      <c r="J11" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="M11" s="27"/>
-      <c r="N11" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O11" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="25" t="n">
+      <c r="M11" s="28"/>
+      <c r="N11" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="AE11" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="29"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AMJ11" s="31"/>
+      <c r="AE11" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AMJ11" s="32"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16532,42 +16599,42 @@
   <dimension ref="1:11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="N8:W8 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="32.6720647773279"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="41.0283400809717"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="41.3481781376518"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="33.8502024291498"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="75.0890688259109"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="75.7327935222672"/>
     <col collapsed="false" hidden="false" max="36" min="32" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="8.57085020242915"/>
@@ -16629,43 +16696,43 @@
         <v>17</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF1" s="8"/>
       <c r="AG1" s="8"/>
@@ -16679,13 +16746,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="11" t="n">
         <v>0</v>
@@ -16696,17 +16763,17 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
@@ -16722,14 +16789,14 @@
       </c>
       <c r="AA2" s="10"/>
       <c r="AB2" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC2" s="11"/>
       <c r="AD2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE2" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AMJ2" s="1"/>
     </row>
@@ -16739,13 +16806,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="11" t="n">
         <v>0</v>
@@ -16756,17 +16823,17 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
@@ -16782,14 +16849,14 @@
       </c>
       <c r="AA3" s="10"/>
       <c r="AB3" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC3" s="11"/>
       <c r="AD3" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE3" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AMJ3" s="1"/>
     </row>
@@ -16799,10 +16866,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="11" t="n">
         <v>1</v>
@@ -16812,14 +16879,14 @@
         <v>2</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -16840,12 +16907,12 @@
       </c>
       <c r="AA4" s="10"/>
       <c r="AB4" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16854,10 +16921,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" s="11" t="n">
         <v>2</v>
@@ -16873,23 +16940,23 @@
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L5" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
@@ -16897,22 +16964,22 @@
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
-      <c r="Z5" s="17"/>
+      <c r="Z5" s="18"/>
       <c r="AA5" s="10"/>
       <c r="AB5" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC5" s="10"/>
       <c r="AD5" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE5" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16921,10 +16988,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="11" t="n">
         <v>3</v>
@@ -16940,23 +17007,23 @@
         <v>1</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L6" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -16964,22 +17031,22 @@
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
-      <c r="Z6" s="17"/>
+      <c r="Z6" s="18"/>
       <c r="AA6" s="10"/>
       <c r="AB6" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC6" s="10"/>
       <c r="AD6" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE6" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16988,10 +17055,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="11" t="n">
         <v>4</v>
@@ -17007,46 +17074,46 @@
         <v>1</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L7" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
-      <c r="Z7" s="17"/>
+      <c r="Z7" s="18"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AC7" s="10"/>
       <c r="AD7" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE7" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17055,10 +17122,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="11" t="n">
         <v>5</v>
@@ -17068,14 +17135,14 @@
         <v>2</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -17096,24 +17163,24 @@
       </c>
       <c r="AA8" s="10"/>
       <c r="AB8" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
       <c r="AE8" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="10" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="11" t="n">
         <v>8</v>
@@ -17128,21 +17195,21 @@
       <c r="I9" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="J9" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>78</v>
+      <c r="J9" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="L9" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="34" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
@@ -17157,26 +17224,26 @@
       <c r="Z9" s="12"/>
       <c r="AA9" s="10"/>
       <c r="AB9" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AC9" s="10"/>
       <c r="AD9" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE9" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="10" t="n">
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="11" t="n">
         <v>9</v>
@@ -17191,21 +17258,21 @@
       <c r="I10" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>78</v>
+      <c r="J10" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="L10" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="34" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
@@ -17220,26 +17287,26 @@
       <c r="Z10" s="12"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AC10" s="10"/>
       <c r="AD10" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE10" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="10" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="11" t="n">
         <v>10</v>
@@ -17254,21 +17321,21 @@
       <c r="I11" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="J11" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>78</v>
+      <c r="J11" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="L11" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M11" s="10"/>
-      <c r="N11" s="33" t="s">
-        <v>114</v>
+      <c r="N11" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
@@ -17283,14 +17350,14 @@
       <c r="Z11" s="12"/>
       <c r="AA11" s="10"/>
       <c r="AB11" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AC11" s="10"/>
       <c r="AD11" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE11" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -17312,42 +17379,42 @@
   <dimension ref="1:18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
+      <selection pane="topLeft" activeCell="N12" activeCellId="1" sqref="N8:W8 N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="24.6356275303644"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="73.3765182186235"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="74.0202429149798"/>
     <col collapsed="false" hidden="false" max="1023" min="32" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="9.10526315789474"/>
   </cols>
@@ -17392,7 +17459,7 @@
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="20" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -17408,43 +17475,43 @@
         <v>17</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
@@ -17458,13 +17525,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="11" t="n">
         <v>0</v>
@@ -17475,17 +17542,17 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
@@ -17501,14 +17568,14 @@
       </c>
       <c r="AA2" s="10"/>
       <c r="AB2" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC2" s="11"/>
       <c r="AD2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE2" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AMJ2" s="1"/>
     </row>
@@ -17518,13 +17585,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="11" t="n">
         <v>0</v>
@@ -17535,17 +17602,17 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
@@ -17561,14 +17628,14 @@
       </c>
       <c r="AA3" s="10"/>
       <c r="AB3" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC3" s="11"/>
       <c r="AD3" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE3" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AMJ3" s="1"/>
     </row>
@@ -17578,10 +17645,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="11" t="n">
         <v>1</v>
@@ -17591,14 +17658,14 @@
         <v>2</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -17619,12 +17686,12 @@
       </c>
       <c r="AA4" s="11"/>
       <c r="AB4" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC4" s="11"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF4" s="0"/>
       <c r="AG4" s="0"/>
@@ -18626,10 +18693,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" s="11" t="n">
         <v>2</v>
@@ -18645,23 +18712,23 @@
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L5" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -18669,7 +18736,7 @@
       <c r="T5" s="10"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -18677,14 +18744,14 @@
       <c r="Z5" s="12"/>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC5" s="11"/>
       <c r="AD5" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE5" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF5" s="0"/>
       <c r="AG5" s="0"/>
@@ -19686,10 +19753,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="11" t="n">
         <v>3</v>
@@ -19705,23 +19772,23 @@
         <v>1</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L6" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
@@ -19729,7 +19796,7 @@
       <c r="T6" s="10"/>
       <c r="U6" s="11"/>
       <c r="V6" s="11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
@@ -19737,14 +19804,14 @@
       <c r="Z6" s="12"/>
       <c r="AA6" s="11"/>
       <c r="AB6" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE6" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF6" s="0"/>
       <c r="AG6" s="0"/>
@@ -20746,10 +20813,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="11" t="n">
         <v>4</v>
@@ -20765,46 +20832,46 @@
         <v>1</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L7" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
-      <c r="Z7" s="17"/>
+      <c r="Z7" s="18"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AC7" s="10"/>
       <c r="AD7" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE7" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
@@ -21801,15 +21868,15 @@
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" s="1" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="10" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="11" t="n">
         <v>5</v>
@@ -21819,40 +21886,40 @@
         <v>2</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
       <c r="T8" s="10"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
       <c r="Z8" s="12" t="n">
         <v>0.1376</v>
       </c>
-      <c r="AA8" s="16"/>
+      <c r="AA8" s="17"/>
       <c r="AB8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC8" s="16"/>
+        <v>48</v>
+      </c>
+      <c r="AC8" s="17"/>
       <c r="AD8" s="10"/>
       <c r="AE8" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21861,10 +21928,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="11" t="n">
         <v>8</v>
@@ -21880,20 +21947,20 @@
         <v>5</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L9" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="11"/>
@@ -21905,17 +21972,17 @@
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
-      <c r="Z9" s="17"/>
+      <c r="Z9" s="18"/>
       <c r="AA9" s="11"/>
       <c r="AB9" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AC9" s="11"/>
       <c r="AD9" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE9" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF9" s="0"/>
       <c r="AG9" s="0"/>
@@ -22913,16 +22980,16 @@
     </row>
     <row r="10" s="40" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B10" s="37" t="n">
         <v>12</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="38" t="n">
         <v>24</v>
@@ -22938,20 +23005,20 @@
         <v>5</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L10" s="38" t="n">
         <v>1</v>
       </c>
       <c r="M10" s="37"/>
       <c r="N10" s="38" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O10" s="38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P10" s="37"/>
       <c r="Q10" s="38"/>
@@ -22966,29 +23033,29 @@
       <c r="Z10" s="39"/>
       <c r="AA10" s="38"/>
       <c r="AB10" s="38" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AC10" s="38"/>
       <c r="AD10" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AE10" s="38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AMJ10" s="41"/>
     </row>
     <row r="11" s="40" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="36" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B11" s="37" t="n">
         <v>13</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="38" t="n">
         <v>25</v>
@@ -23004,20 +23071,20 @@
         <v>5</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L11" s="38" t="n">
         <v>1</v>
       </c>
       <c r="M11" s="37"/>
       <c r="N11" s="38" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O11" s="38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P11" s="37"/>
       <c r="Q11" s="38"/>
@@ -23032,29 +23099,29 @@
       <c r="Z11" s="39"/>
       <c r="AA11" s="38"/>
       <c r="AB11" s="38" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AC11" s="38"/>
       <c r="AD11" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AE11" s="38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AMJ11" s="41"/>
     </row>
     <row r="12" s="40" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="36" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B12" s="37" t="n">
         <v>14</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="38" t="n">
         <v>26</v>
@@ -23070,20 +23137,20 @@
         <v>5</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L12" s="38" t="n">
         <v>1</v>
       </c>
       <c r="M12" s="37"/>
       <c r="N12" s="38" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O12" s="38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P12" s="37"/>
       <c r="Q12" s="38"/>
@@ -23098,27 +23165,27 @@
       <c r="Z12" s="39"/>
       <c r="AA12" s="38"/>
       <c r="AB12" s="38" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AC12" s="38"/>
       <c r="AD12" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AE12" s="38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AMJ12" s="41"/>
     </row>
     <row r="13" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="13"/>
-      <c r="B13" s="27" t="n">
+      <c r="B13" s="28" t="n">
         <v>15</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="11" t="n">
         <v>18</v>
@@ -23128,14 +23195,14 @@
         <v>2</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="10"/>
@@ -23156,24 +23223,24 @@
       </c>
       <c r="AA13" s="11"/>
       <c r="AB13" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC13" s="11"/>
       <c r="AD13" s="10"/>
       <c r="AE13" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="13"/>
-      <c r="B14" s="27" t="n">
+      <c r="B14" s="28" t="n">
         <v>16</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="11" t="n">
         <v>19</v>
@@ -23189,29 +23256,29 @@
         <v>18</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L14" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
@@ -23221,26 +23288,26 @@
       <c r="Z14" s="12"/>
       <c r="AA14" s="11"/>
       <c r="AB14" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC14" s="11"/>
       <c r="AD14" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE14" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="13"/>
-      <c r="B15" s="27" t="n">
+      <c r="B15" s="28" t="n">
         <v>17</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="11" t="n">
         <v>20</v>
@@ -23256,29 +23323,29 @@
         <v>18</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L15" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
@@ -23288,26 +23355,26 @@
       <c r="Z15" s="12"/>
       <c r="AA15" s="11"/>
       <c r="AB15" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC15" s="11"/>
       <c r="AD15" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE15" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13"/>
-      <c r="B16" s="27" t="n">
+      <c r="B16" s="28" t="n">
         <v>18</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="11" t="n">
         <v>21</v>
@@ -23323,29 +23390,29 @@
         <v>18</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L16" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
@@ -23355,26 +23422,26 @@
       <c r="Z16" s="12"/>
       <c r="AA16" s="11"/>
       <c r="AB16" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC16" s="11"/>
       <c r="AD16" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE16" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="13"/>
-      <c r="B17" s="27" t="n">
+      <c r="B17" s="28" t="n">
         <v>19</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="11" t="n">
         <v>22</v>
@@ -23390,29 +23457,29 @@
         <v>18</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L17" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
@@ -23422,26 +23489,26 @@
       <c r="Z17" s="12"/>
       <c r="AA17" s="11"/>
       <c r="AB17" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC17" s="11"/>
       <c r="AD17" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE17" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="13"/>
-      <c r="B18" s="27" t="n">
+      <c r="B18" s="28" t="n">
         <v>20</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="11" t="n">
         <v>23</v>
@@ -23457,29 +23524,29 @@
         <v>18</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L18" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="11" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
@@ -23489,14 +23556,14 @@
       <c r="Z18" s="12"/>
       <c r="AA18" s="11"/>
       <c r="AB18" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC18" s="11"/>
       <c r="AD18" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE18" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -23518,7 +23585,7 @@
   <dimension ref="1:12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="N8:W8 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -23530,30 +23597,30 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="32.6720647773279"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="71.4493927125506"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="72.0890688259109"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="34.5991902834008"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="55.165991902834"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="55.5951417004049"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="75.0890688259109"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="75.7327935222672"/>
     <col collapsed="false" hidden="false" max="36" min="32" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="8.57085020242915"/>
@@ -23615,43 +23682,43 @@
         <v>17</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF1" s="8"/>
       <c r="AG1" s="8"/>
@@ -23665,13 +23732,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="11" t="n">
         <v>0</v>
@@ -23682,17 +23749,17 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
@@ -23708,14 +23775,14 @@
       </c>
       <c r="AA2" s="10"/>
       <c r="AB2" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC2" s="11"/>
       <c r="AD2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE2" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AMJ2" s="1"/>
     </row>
@@ -23725,13 +23792,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="11" t="n">
         <v>0</v>
@@ -23742,17 +23809,17 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
@@ -23768,14 +23835,14 @@
       </c>
       <c r="AA3" s="10"/>
       <c r="AB3" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC3" s="11"/>
       <c r="AD3" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE3" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AMJ3" s="1"/>
     </row>
@@ -23785,10 +23852,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="11" t="n">
         <v>1</v>
@@ -23798,14 +23865,14 @@
         <v>2</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -23826,12 +23893,12 @@
       </c>
       <c r="AA4" s="10"/>
       <c r="AB4" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF4" s="0"/>
       <c r="AG4" s="0"/>
@@ -24833,10 +24900,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" s="11" t="n">
         <v>2</v>
@@ -24852,23 +24919,23 @@
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L5" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
@@ -24876,22 +24943,22 @@
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
-      <c r="Z5" s="17"/>
+      <c r="Z5" s="18"/>
       <c r="AA5" s="10"/>
       <c r="AB5" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC5" s="10"/>
       <c r="AD5" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE5" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF5" s="0"/>
       <c r="AG5" s="0"/>
@@ -25893,10 +25960,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="11" t="n">
         <v>3</v>
@@ -25912,23 +25979,23 @@
         <v>1</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L6" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -25936,22 +26003,22 @@
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
-      <c r="Z6" s="17"/>
+      <c r="Z6" s="18"/>
       <c r="AA6" s="10"/>
       <c r="AB6" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC6" s="10"/>
       <c r="AD6" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE6" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF6" s="0"/>
       <c r="AG6" s="0"/>
@@ -26953,10 +27020,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="11" t="n">
         <v>4</v>
@@ -26972,46 +27039,46 @@
         <v>1</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L7" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
-      <c r="Z7" s="17"/>
+      <c r="Z7" s="18"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AC7" s="10"/>
       <c r="AD7" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE7" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF7" s="0"/>
       <c r="AG7" s="0"/>
@@ -28013,10 +28080,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="11" t="n">
         <v>5</v>
@@ -28026,14 +28093,14 @@
         <v>2</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -28054,12 +28121,12 @@
       </c>
       <c r="AA8" s="10"/>
       <c r="AB8" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
       <c r="AE8" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF8" s="0"/>
       <c r="AG8" s="0"/>
@@ -29061,10 +29128,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="11" t="n">
         <v>6</v>
@@ -29079,21 +29146,21 @@
       <c r="I9" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="J9" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>78</v>
+      <c r="J9" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="L9" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
@@ -29108,14 +29175,14 @@
       <c r="Z9" s="12"/>
       <c r="AA9" s="10"/>
       <c r="AB9" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AC9" s="10"/>
       <c r="AD9" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE9" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF9" s="0"/>
       <c r="AG9" s="0"/>
@@ -30117,10 +30184,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="11" t="n">
         <v>8</v>
@@ -30135,21 +30202,21 @@
       <c r="I10" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>78</v>
+      <c r="J10" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="L10" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
@@ -30164,14 +30231,14 @@
       <c r="Z10" s="12"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AC10" s="10"/>
       <c r="AD10" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE10" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF10" s="0"/>
       <c r="AG10" s="0"/>
@@ -31173,10 +31240,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="11" t="n">
         <v>9</v>
@@ -31191,21 +31258,21 @@
       <c r="I11" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="J11" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>78</v>
+      <c r="J11" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="L11" s="11" t="n">
         <v>1</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
@@ -31220,14 +31287,14 @@
       <c r="Z11" s="12"/>
       <c r="AA11" s="10"/>
       <c r="AB11" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AC11" s="10"/>
       <c r="AD11" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AE11" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF11" s="0"/>
       <c r="AG11" s="0"/>
@@ -32225,16 +32292,16 @@
     </row>
     <row r="12" s="40" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="36" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B12" s="37" t="n">
         <v>13</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="38" t="n">
         <v>12</v>
@@ -32250,20 +32317,20 @@
         <v>5</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K12" s="42" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L12" s="38" t="n">
         <v>1</v>
       </c>
       <c r="M12" s="37"/>
       <c r="N12" s="42" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O12" s="38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -32278,14 +32345,14 @@
       <c r="Z12" s="43"/>
       <c r="AA12" s="37"/>
       <c r="AB12" s="38" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AC12" s="37"/>
       <c r="AD12" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AE12" s="38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF12" s="44"/>
       <c r="AG12" s="44"/>

--- a/Projects/CCRU/Data/KPIs_2019/Contract Execution 2019.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/Contract Execution 2019.xlsx
@@ -17,29 +17,29 @@
     <sheet name="IC - HoReCa ALL" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'MT - Hyper-Super'!$C$1:$AH$24</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="138">
   <si>
     <t xml:space="preserve">Action</t>
   </si>
@@ -347,6 +347,33 @@
     <t xml:space="preserve">Juice Shelf Share</t>
   </si>
   <si>
+    <t xml:space="preserve">23,24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant Based Drinks Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adez Warm Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warm shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adez Cold Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cold Shelf - Modern Trade</t>
+  </si>
+  <si>
     <t xml:space="preserve">CV_2019</t>
   </si>
   <si>
@@ -500,7 +527,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,8 +542,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -529,12 +556,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
   </fills>
@@ -582,7 +603,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -635,6 +656,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -643,7 +672,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -663,7 +692,47 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -671,7 +740,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -715,51 +796,51 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -837,7 +918,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="C1:AH23" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="C1:AH24" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="32">
     <tableColumn id="1" name="Channel"/>
     <tableColumn id="2" name="KPI Set Type"/>
@@ -880,53 +961,53 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:23"/>
+  <dimension ref="1:27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8:W8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="1" sqref="H4:H5 H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.12550607287449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.86234817813765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="8.44939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.2955465587045"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.36437246963563"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="18.7368421052632"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.83400809716599"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.6518218623482"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="26.3805668016194"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.68421052631579"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.76923076923077"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.1821862348178"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.2388663967611"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="20.502024291498"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.76923076923077"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6842105263158"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="16.9757085020243"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="6.39271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.417004048583"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="17.7085020242915"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="28.2955465587045"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="20.2105263157895"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="23.587044534413"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="11.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.17813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.92712550607287"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="8.46153846153846"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.74898785425101"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.82186234817814"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.82186234817814"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="6.42914979757085"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.3603238866397"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="4" width="63.4291497975709"/>
-    <col collapsed="false" hidden="false" max="34" min="33" style="4" width="8.44939271255061"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="4" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="4" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="34" min="33" style="4" width="8.46153846153846"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="4" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="9" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1113,7 @@
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="13" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="n">
         <v>1</v>
@@ -1093,9 +1174,9 @@
       </c>
       <c r="AG2" s="10"/>
       <c r="AH2" s="10"/>
-      <c r="AMJ2" s="1"/>
+      <c r="AMJ2" s="14"/>
     </row>
-    <row r="3" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="13" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="n">
         <v>2</v>
@@ -1156,10 +1237,10 @@
       </c>
       <c r="AG3" s="10"/>
       <c r="AH3" s="10"/>
-      <c r="AMJ3" s="1"/>
+      <c r="AMJ3" s="14"/>
     </row>
-    <row r="4" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
+    <row r="4" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15"/>
       <c r="B4" s="10" t="n">
         <v>3</v>
       </c>
@@ -1188,7 +1269,7 @@
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
-      <c r="N4" s="14"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11" t="s">
         <v>48</v>
@@ -1217,9 +1298,12 @@
       </c>
       <c r="AG4" s="10"/>
       <c r="AH4" s="10"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AMJ4" s="14"/>
     </row>
-    <row r="5" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
+    <row r="5" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15"/>
       <c r="B5" s="10" t="n">
         <v>4</v>
       </c>
@@ -1252,24 +1336,24 @@
         <v>1</v>
       </c>
       <c r="M5" s="10"/>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="15" t="s">
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="15" t="s">
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18" t="s">
         <v>54</v>
       </c>
       <c r="X5" s="11"/>
@@ -1289,9 +1373,12 @@
       </c>
       <c r="AG5" s="10"/>
       <c r="AH5" s="10"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AMJ5" s="14"/>
     </row>
-    <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
+    <row r="6" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15"/>
       <c r="B6" s="10" t="n">
         <v>5</v>
       </c>
@@ -1359,9 +1446,12 @@
       </c>
       <c r="AG6" s="10"/>
       <c r="AH6" s="10"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AMJ6" s="14"/>
     </row>
-    <row r="7" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17"/>
+    <row r="7" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19"/>
       <c r="B7" s="10" t="n">
         <v>6</v>
       </c>
@@ -1429,9 +1519,12 @@
       </c>
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AMJ7" s="14"/>
     </row>
-    <row r="8" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
+    <row r="8" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15"/>
       <c r="B8" s="10" t="n">
         <v>7</v>
       </c>
@@ -1464,24 +1557,24 @@
         <v>1</v>
       </c>
       <c r="M8" s="10"/>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="15" t="s">
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="15" t="s">
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18" t="s">
         <v>60</v>
       </c>
       <c r="X8" s="11"/>
@@ -1501,9 +1594,12 @@
       </c>
       <c r="AG8" s="10"/>
       <c r="AH8" s="10"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AMJ8" s="14"/>
     </row>
-    <row r="9" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
+    <row r="9" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15"/>
       <c r="B9" s="10" t="n">
         <v>8</v>
       </c>
@@ -1571,9 +1667,12 @@
       </c>
       <c r="AG9" s="10"/>
       <c r="AH9" s="10"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AMJ9" s="14"/>
     </row>
-    <row r="10" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
+    <row r="10" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15"/>
       <c r="B10" s="10" t="n">
         <v>9</v>
       </c>
@@ -1641,9 +1740,12 @@
       </c>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AMJ10" s="14"/>
     </row>
-    <row r="11" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
+    <row r="11" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15"/>
       <c r="B11" s="10" t="n">
         <v>10</v>
       </c>
@@ -1711,9 +1813,12 @@
       </c>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AMJ11" s="14"/>
     </row>
-    <row r="12" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
+    <row r="12" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15"/>
       <c r="B12" s="10" t="n">
         <v>11</v>
       </c>
@@ -1781,9 +1886,12 @@
       </c>
       <c r="AG12" s="10"/>
       <c r="AH12" s="10"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AMJ12" s="14"/>
     </row>
-    <row r="13" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
+    <row r="13" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15"/>
       <c r="B13" s="10" t="n">
         <v>12</v>
       </c>
@@ -1851,9 +1959,12 @@
       </c>
       <c r="AG13" s="10"/>
       <c r="AH13" s="10"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AMJ13" s="14"/>
     </row>
-    <row r="14" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
+    <row r="14" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15"/>
       <c r="B14" s="10" t="n">
         <v>13</v>
       </c>
@@ -1911,9 +2022,12 @@
       </c>
       <c r="AG14" s="10"/>
       <c r="AH14" s="10"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AMJ14" s="14"/>
     </row>
-    <row r="15" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
+    <row r="15" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15"/>
       <c r="B15" s="10" t="n">
         <v>14</v>
       </c>
@@ -1967,7 +2081,7 @@
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
-      <c r="AA15" s="18"/>
+      <c r="AA15" s="20"/>
       <c r="AB15" s="11"/>
       <c r="AC15" s="11" t="s">
         <v>39</v>
@@ -1981,9 +2095,12 @@
       </c>
       <c r="AG15" s="10"/>
       <c r="AH15" s="10"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AMJ15" s="14"/>
     </row>
-    <row r="16" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
+    <row r="16" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15"/>
       <c r="B16" s="10" t="n">
         <v>15</v>
       </c>
@@ -2037,7 +2154,7 @@
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
-      <c r="AA16" s="18"/>
+      <c r="AA16" s="20"/>
       <c r="AB16" s="11"/>
       <c r="AC16" s="11" t="s">
         <v>39</v>
@@ -2051,9 +2168,12 @@
       </c>
       <c r="AG16" s="10"/>
       <c r="AH16" s="10"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AMJ16" s="14"/>
     </row>
-    <row r="17" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17"/>
+    <row r="17" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="19"/>
       <c r="B17" s="10" t="n">
         <v>16</v>
       </c>
@@ -2103,7 +2223,7 @@
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
-      <c r="AA17" s="18"/>
+      <c r="AA17" s="20"/>
       <c r="AB17" s="11"/>
       <c r="AC17" s="11" t="s">
         <v>84</v>
@@ -2117,9 +2237,12 @@
       </c>
       <c r="AG17" s="10"/>
       <c r="AH17" s="10"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AMJ17" s="14"/>
     </row>
-    <row r="18" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
+    <row r="18" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15"/>
       <c r="B18" s="10" t="n">
         <v>17</v>
       </c>
@@ -2177,9 +2300,12 @@
       </c>
       <c r="AG18" s="10"/>
       <c r="AH18" s="10"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AMJ18" s="14"/>
     </row>
-    <row r="19" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
+    <row r="19" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15"/>
       <c r="B19" s="10" t="n">
         <v>18</v>
       </c>
@@ -2205,7 +2331,7 @@
       <c r="J19" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="21" t="s">
         <v>88</v>
       </c>
       <c r="L19" s="11" t="n">
@@ -2247,9 +2373,12 @@
       </c>
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AMJ19" s="14"/>
     </row>
-    <row r="20" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
+    <row r="20" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15"/>
       <c r="B20" s="10" t="n">
         <v>19</v>
       </c>
@@ -2275,7 +2404,7 @@
       <c r="J20" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="21" t="s">
         <v>88</v>
       </c>
       <c r="L20" s="11" t="n">
@@ -2317,9 +2446,12 @@
       </c>
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AMJ20" s="14"/>
     </row>
-    <row r="21" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
+    <row r="21" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15"/>
       <c r="B21" s="10" t="n">
         <v>20</v>
       </c>
@@ -2345,7 +2477,7 @@
       <c r="J21" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="21" t="s">
         <v>88</v>
       </c>
       <c r="L21" s="11" t="n">
@@ -2387,9 +2519,12 @@
       </c>
       <c r="AG21" s="10"/>
       <c r="AH21" s="10"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AMJ21" s="14"/>
     </row>
-    <row r="22" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
+    <row r="22" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15"/>
       <c r="B22" s="10" t="n">
         <v>21</v>
       </c>
@@ -2415,7 +2550,7 @@
       <c r="J22" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="21" t="s">
         <v>88</v>
       </c>
       <c r="L22" s="11" t="n">
@@ -2457,9 +2592,12 @@
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AMJ22" s="14"/>
     </row>
-    <row r="23" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
+    <row r="23" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15"/>
       <c r="B23" s="10" t="n">
         <v>22</v>
       </c>
@@ -2485,7 +2623,7 @@
       <c r="J23" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="21" t="s">
         <v>88</v>
       </c>
       <c r="L23" s="11" t="n">
@@ -2527,6 +2665,243 @@
       </c>
       <c r="AG23" s="10"/>
       <c r="AH23" s="10"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AMJ23" s="14"/>
+    </row>
+    <row r="24" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="24" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+    </row>
+    <row r="25" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="24" t="n">
+        <v>23</v>
+      </c>
+      <c r="F25" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24" t="n">
+        <v>22</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="O25" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+    </row>
+    <row r="26" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="24" t="n">
+        <v>24</v>
+      </c>
+      <c r="F26" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24" t="n">
+        <v>22</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="L26" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="O26" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+    </row>
+    <row r="27" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="28"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2547,157 +2922,157 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="1:26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8:W8"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H4:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.12550607287449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.86234817813765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="8.44939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.2955465587045"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.36437246963563"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="18.7368421052632"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.83400809716599"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.6518218623482"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="26.3805668016194"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.68421052631579"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.76923076923077"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.1821862348178"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.2388663967611"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="20.502024291498"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.76923076923077"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6842105263158"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="16.9757085020243"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="6.39271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.417004048583"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="17.7085020242915"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="28.2955465587045"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="20.2105263157895"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="23.587044534413"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="3" width="11.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.17813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.92712550607287"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="8.46153846153846"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.74898785425101"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="53.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.82186234817814"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.82186234817814"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="6.42914979757085"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="3" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.3603238866397"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="63.4291497975709"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="2" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="2" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="34" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AJ1" s="21"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AJ1" s="33"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="13" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>35</v>
@@ -2751,13 +3126,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="13" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>35</v>
@@ -2811,13 +3186,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
+    <row r="4" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15"/>
       <c r="B4" s="10" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>44</v>
@@ -2841,7 +3216,7 @@
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
-      <c r="N4" s="14"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -2866,16 +3241,16 @@
       <c r="AF4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
     </row>
-    <row r="5" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
+    <row r="5" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15"/>
       <c r="B5" s="10" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>44</v>
@@ -2903,24 +3278,24 @@
         <v>1</v>
       </c>
       <c r="M5" s="10"/>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="15" t="s">
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="15" t="s">
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18" t="s">
         <v>54</v>
       </c>
       <c r="X5" s="11"/>
@@ -2938,16 +3313,16 @@
       <c r="AF5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
     </row>
-    <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
+    <row r="6" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15"/>
       <c r="B6" s="10" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>44</v>
@@ -3008,16 +3383,16 @@
       <c r="AF6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
     </row>
-    <row r="7" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17"/>
+    <row r="7" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19"/>
       <c r="B7" s="10" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>44</v>
@@ -3078,16 +3453,16 @@
       <c r="AF7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="22"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="35"/>
     </row>
-    <row r="8" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
+    <row r="8" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15"/>
       <c r="B8" s="10" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>44</v>
@@ -3115,24 +3490,24 @@
         <v>1</v>
       </c>
       <c r="M8" s="10"/>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="15" t="s">
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="15" t="s">
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18" t="s">
         <v>60</v>
       </c>
       <c r="X8" s="11"/>
@@ -3150,16 +3525,16 @@
       <c r="AF8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="22"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
     </row>
-    <row r="9" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
+    <row r="9" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15"/>
       <c r="B9" s="10" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>44</v>
@@ -3220,16 +3595,16 @@
       <c r="AF9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
     </row>
-    <row r="10" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
+    <row r="10" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15"/>
       <c r="B10" s="10" t="n">
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>44</v>
@@ -3290,16 +3665,16 @@
       <c r="AF10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
     </row>
-    <row r="11" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
+    <row r="11" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15"/>
       <c r="B11" s="10" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>44</v>
@@ -3360,16 +3735,16 @@
       <c r="AF11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG11" s="22"/>
-      <c r="AH11" s="22"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
     </row>
-    <row r="12" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
+    <row r="12" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15"/>
       <c r="B12" s="10" t="n">
         <v>11</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>44</v>
@@ -3430,16 +3805,16 @@
       <c r="AF12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
     </row>
-    <row r="13" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
+    <row r="13" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15"/>
       <c r="B13" s="10" t="n">
         <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>44</v>
@@ -3500,16 +3875,16 @@
       <c r="AF13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG13" s="22"/>
-      <c r="AH13" s="22"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
     </row>
-    <row r="14" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
+    <row r="14" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15"/>
       <c r="B14" s="10" t="n">
         <v>13</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>44</v>
@@ -3558,16 +3933,16 @@
       <c r="AF14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="22"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
     </row>
-    <row r="15" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
+    <row r="15" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15"/>
       <c r="B15" s="10" t="n">
         <v>14</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>44</v>
@@ -3616,7 +3991,7 @@
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
-      <c r="AA15" s="18"/>
+      <c r="AA15" s="20"/>
       <c r="AB15" s="11"/>
       <c r="AC15" s="11" t="s">
         <v>39</v>
@@ -3628,16 +4003,16 @@
       <c r="AF15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="22"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
     </row>
-    <row r="16" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
+    <row r="16" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15"/>
       <c r="B16" s="10" t="n">
         <v>15</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>44</v>
@@ -3686,7 +4061,7 @@
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
-      <c r="AA16" s="18"/>
+      <c r="AA16" s="20"/>
       <c r="AB16" s="11"/>
       <c r="AC16" s="11" t="s">
         <v>39</v>
@@ -3698,16 +4073,16 @@
       <c r="AF16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="22"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
     </row>
-    <row r="17" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17"/>
+    <row r="17" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="19"/>
       <c r="B17" s="10" t="n">
         <v>16</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>44</v>
@@ -3752,7 +4127,7 @@
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
-      <c r="AA17" s="18"/>
+      <c r="AA17" s="20"/>
       <c r="AB17" s="11"/>
       <c r="AC17" s="11" t="s">
         <v>84</v>
@@ -3764,16 +4139,16 @@
       <c r="AF17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG17" s="22"/>
-      <c r="AH17" s="22"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
     </row>
-    <row r="18" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
+    <row r="18" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15"/>
       <c r="B18" s="10" t="n">
         <v>17</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>44</v>
@@ -3822,16 +4197,16 @@
       <c r="AF18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG18" s="22"/>
-      <c r="AH18" s="22"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
     </row>
-    <row r="19" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
+    <row r="19" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15"/>
       <c r="B19" s="10" t="n">
         <v>18</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>44</v>
@@ -3852,7 +4227,7 @@
       <c r="J19" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="21" t="s">
         <v>88</v>
       </c>
       <c r="L19" s="11" t="n">
@@ -3892,16 +4267,16 @@
       <c r="AF19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG19" s="22"/>
-      <c r="AH19" s="22"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
     </row>
-    <row r="20" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
+    <row r="20" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15"/>
       <c r="B20" s="10" t="n">
         <v>19</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>44</v>
@@ -3922,7 +4297,7 @@
       <c r="J20" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="21" t="s">
         <v>88</v>
       </c>
       <c r="L20" s="11" t="n">
@@ -3962,16 +4337,16 @@
       <c r="AF20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG20" s="22"/>
-      <c r="AH20" s="22"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
     </row>
-    <row r="21" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
+    <row r="21" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15"/>
       <c r="B21" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>44</v>
@@ -3992,7 +4367,7 @@
       <c r="J21" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="21" t="s">
         <v>88</v>
       </c>
       <c r="L21" s="11" t="n">
@@ -4032,16 +4407,16 @@
       <c r="AF21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG21" s="22"/>
-      <c r="AH21" s="22"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
     </row>
-    <row r="22" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
+    <row r="22" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15"/>
       <c r="B22" s="10" t="n">
         <v>21</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>44</v>
@@ -4062,7 +4437,7 @@
       <c r="J22" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="21" t="s">
         <v>88</v>
       </c>
       <c r="L22" s="11" t="n">
@@ -4102,16 +4477,16 @@
       <c r="AF22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG22" s="22"/>
-      <c r="AH22" s="22"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
     </row>
-    <row r="23" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
+    <row r="23" s="17" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15"/>
       <c r="B23" s="10" t="n">
         <v>22</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>44</v>
@@ -4132,7 +4507,7 @@
       <c r="J23" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="21" t="s">
         <v>88</v>
       </c>
       <c r="L23" s="11" t="n">
@@ -4172,8 +4547,215 @@
       <c r="AF23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG23" s="22"/>
-      <c r="AH23" s="22"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+    </row>
+    <row r="24" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="24" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AMJ24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="24" t="n">
+        <v>23</v>
+      </c>
+      <c r="F25" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24" t="n">
+        <v>22</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="O25" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AMJ25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="24" t="n">
+        <v>24</v>
+      </c>
+      <c r="F26" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24" t="n">
+        <v>22</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="L26" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="O26" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AMJ26" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4194,48 +4776,48 @@
   <dimension ref="1:10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="1" sqref="N8:W8 H9"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="1" sqref="H4:H5 H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="74.0202429149798"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="74.6599190283401"/>
     <col collapsed="false" hidden="false" max="36" min="32" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="9" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4335,178 +4917,178 @@
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10" t="n">
+    <row r="2" s="4" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="11" t="n">
+      <c r="F2" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="11" t="n">
+      <c r="G2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="12" t="n">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="36" t="n">
         <v>0.4</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="11" t="s">
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11" t="n">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AE2" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AMJ2" s="1"/>
     </row>
-    <row r="3" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="n">
+    <row r="3" s="4" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="12" t="n">
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="36" t="n">
         <v>0.6</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="11" t="s">
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11" t="n">
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AMJ3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-      <c r="B4" s="10" t="n">
+    <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="28"/>
+      <c r="B4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11" t="n">
+      <c r="F4" s="26"/>
+      <c r="G4" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11" t="s">
+      <c r="H4" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="12" t="n">
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="36" t="n">
         <v>0.333</v>
       </c>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="11" t="s">
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF4" s="0"/>
@@ -5503,70 +6085,70 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="10" t="n">
+    <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28"/>
+      <c r="B5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11" t="n">
+      <c r="H5" s="26"/>
+      <c r="I5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11" t="s">
+      <c r="M5" s="26"/>
+      <c r="N5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="11" t="s">
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="11" t="s">
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="11" t="n">
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE5" s="11" t="s">
+      <c r="AE5" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF5" s="0"/>
@@ -6563,70 +7145,70 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="10" t="n">
+    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28"/>
+      <c r="B6" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="F6" s="11" t="n">
+      <c r="F6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11" t="n">
+      <c r="H6" s="26"/>
+      <c r="I6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="L6" s="11" t="n">
+      <c r="L6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11" t="s">
+      <c r="M6" s="26"/>
+      <c r="N6" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="11" t="s">
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="11" t="s">
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="11" t="n">
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AE6" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF6" s="0"/>
@@ -7623,70 +8205,70 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="10" t="n">
+    <row r="7" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28"/>
+      <c r="B7" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11" t="n">
+      <c r="H7" s="26"/>
+      <c r="I7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="11" t="s">
+      <c r="J7" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="11" t="n">
+      <c r="L7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="O7" s="11" t="s">
+      <c r="M7" s="26"/>
+      <c r="N7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="O7" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="11" t="s">
+      <c r="P7" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="11" t="n">
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE7" s="11" t="s">
+      <c r="AE7" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF7" s="0"/>
@@ -8683,58 +9265,58 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="10" t="n">
+    <row r="8" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="28"/>
+      <c r="B8" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11" t="n">
+      <c r="F8" s="26"/>
+      <c r="G8" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" s="11" t="s">
+      <c r="H8" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="12" t="n">
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="36" t="n">
         <v>0.667</v>
       </c>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="11" t="s">
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF8" s="0"/>
@@ -9731,135 +10313,135 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" s="31" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25" t="n">
+    <row r="9" s="46" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="26" t="s">
+      <c r="C9" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="23" t="n">
+      <c r="E9" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="F9" s="26" t="n">
+      <c r="F9" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="26" t="n">
+      <c r="G9" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26" t="n">
+      <c r="H9" s="41"/>
+      <c r="I9" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="J9" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" s="27" t="s">
+      <c r="J9" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="26" t="n">
+      <c r="L9" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="O9" s="26" t="s">
+      <c r="M9" s="43"/>
+      <c r="N9" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="26" t="s">
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="26" t="n">
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="AE9" s="26" t="s">
+      <c r="AE9" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30"/>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AMJ9" s="32"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AMJ9" s="47"/>
     </row>
-    <row r="10" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
-      <c r="B10" s="25" t="n">
+    <row r="10" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="48"/>
+      <c r="B10" s="40" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="23" t="n">
+      <c r="E10" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="n">
+      <c r="H10" s="29"/>
+      <c r="I10" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" s="19" t="s">
+      <c r="J10" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="11" t="n">
+      <c r="L10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="O10" s="11" t="s">
+      <c r="M10" s="26"/>
+      <c r="N10" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="11" t="s">
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="11" t="n">
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE10" s="11" t="s">
+      <c r="AE10" s="29" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9881,11 +10463,11 @@
   </sheetPr>
   <dimension ref="1:11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="1" sqref="N8:W8 J11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J10" activeCellId="1" sqref="H4:H5 J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="25" min="3" style="2" width="8.78542510121457"/>
@@ -9896,7 +10478,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="9" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -9996,178 +10578,178 @@
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10" t="n">
+    <row r="2" s="4" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="11" t="n">
+      <c r="F2" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="11" t="n">
+      <c r="G2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="12" t="n">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="36" t="n">
         <v>0.4</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="11" t="s">
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11" t="n">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AE2" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AMJ2" s="1"/>
     </row>
-    <row r="3" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="n">
+    <row r="3" s="4" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="12" t="n">
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="36" t="n">
         <v>0.6</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="11" t="s">
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11" t="n">
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AMJ3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-      <c r="B4" s="10" t="n">
+    <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="28"/>
+      <c r="B4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11" t="n">
+      <c r="F4" s="26"/>
+      <c r="G4" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11" t="s">
+      <c r="H4" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="12" t="n">
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="36" t="n">
         <v>0.333</v>
       </c>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="11" t="s">
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF4" s="0"/>
@@ -11164,70 +11746,70 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="10" t="n">
+    <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28"/>
+      <c r="B5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11" t="n">
+      <c r="H5" s="26"/>
+      <c r="I5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11" t="s">
+      <c r="M5" s="26"/>
+      <c r="N5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="11" t="s">
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="11" t="s">
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="11" t="n">
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE5" s="11" t="s">
+      <c r="AE5" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF5" s="0"/>
@@ -12224,70 +12806,70 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="10" t="n">
+    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28"/>
+      <c r="B6" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="F6" s="11" t="n">
+      <c r="F6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11" t="n">
+      <c r="H6" s="26"/>
+      <c r="I6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="L6" s="11" t="n">
+      <c r="L6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11" t="s">
+      <c r="M6" s="26"/>
+      <c r="N6" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="11" t="s">
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="11" t="s">
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="11" t="n">
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AE6" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF6" s="0"/>
@@ -13284,70 +13866,70 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="10" t="n">
+    <row r="7" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28"/>
+      <c r="B7" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11" t="n">
+      <c r="H7" s="26"/>
+      <c r="I7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="11" t="s">
+      <c r="J7" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="11" t="n">
+      <c r="L7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="O7" s="11" t="s">
+      <c r="M7" s="26"/>
+      <c r="N7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="O7" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="11" t="s">
+      <c r="P7" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="11" t="n">
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE7" s="11" t="s">
+      <c r="AE7" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF7" s="0"/>
@@ -14344,58 +14926,58 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="10" t="n">
+    <row r="8" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="28"/>
+      <c r="B8" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11" t="n">
+      <c r="F8" s="26"/>
+      <c r="G8" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" s="11" t="s">
+      <c r="H8" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="12" t="n">
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="36" t="n">
         <v>0.667</v>
       </c>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="11" t="s">
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF8" s="0"/>
@@ -15392,129 +15974,129 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" s="1" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="25" t="n">
+    <row r="9" s="1" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="28"/>
+      <c r="B9" s="40" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="23" t="n">
+      <c r="E9" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="n">
+      <c r="H9" s="29"/>
+      <c r="I9" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" s="19" t="s">
+      <c r="J9" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="11" t="n">
+      <c r="L9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="O9" s="11" t="s">
+      <c r="M9" s="26"/>
+      <c r="N9" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="11" t="s">
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="11" t="n">
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE9" s="11" t="s">
+      <c r="AE9" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
-      <c r="B10" s="25" t="n">
+    <row r="10" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="48"/>
+      <c r="B10" s="40" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="23" t="n">
+      <c r="E10" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="n">
+      <c r="H10" s="29"/>
+      <c r="I10" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" s="19" t="s">
+      <c r="J10" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="11" t="n">
+      <c r="L10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="O10" s="11" t="s">
+      <c r="M10" s="26"/>
+      <c r="N10" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="11" t="s">
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="11" t="n">
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE10" s="11" t="s">
+      <c r="AE10" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF10" s="0"/>
@@ -16511,74 +17093,74 @@
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" s="31" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33"/>
-      <c r="B11" s="25" t="n">
+    <row r="11" s="46" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="50"/>
+      <c r="B11" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="26" t="s">
+      <c r="C11" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="23" t="n">
+      <c r="E11" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="F11" s="26" t="n">
+      <c r="F11" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="26" t="n">
+      <c r="G11" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26" t="n">
+      <c r="H11" s="41"/>
+      <c r="I11" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="J11" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="K11" s="27" t="s">
+      <c r="J11" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="L11" s="26" t="n">
+      <c r="L11" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="O11" s="26" t="s">
+      <c r="M11" s="43"/>
+      <c r="N11" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="26" t="s">
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="26" t="n">
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="AE11" s="26" t="s">
+      <c r="AE11" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="30"/>
-      <c r="AMJ11" s="32"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AMJ11" s="47"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16599,10 +17181,10 @@
   <dimension ref="1:11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="N8:W8 A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="H4:H5 A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.3886639676113"/>
@@ -16611,36 +17193,36 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="32.8866396761134"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="41.3481781376518"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="75.7327935222672"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="76.4817813765182"/>
     <col collapsed="false" hidden="false" max="36" min="32" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="9" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -16740,623 +17322,623 @@
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10" t="n">
+    <row r="2" s="4" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="11" t="n">
+      <c r="F2" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="11" t="n">
+      <c r="G2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="12" t="n">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="36" t="n">
         <v>0.54</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="11" t="s">
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11" t="n">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AE2" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AMJ2" s="1"/>
     </row>
-    <row r="3" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="n">
+    <row r="3" s="4" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="12" t="n">
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="36" t="n">
         <v>0.46</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="11" t="s">
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11" t="n">
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AMJ3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-      <c r="B4" s="10" t="n">
+    <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="28"/>
+      <c r="B4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="36" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28"/>
+      <c r="B5" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="26"/>
+      <c r="N5" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28"/>
+      <c r="B6" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="26"/>
+      <c r="N6" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28"/>
+      <c r="B7" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="26"/>
+      <c r="N7" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="O7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="28"/>
+      <c r="B8" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E8" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="36" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="48"/>
+      <c r="B9" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="29" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="12" t="n">
-        <v>0.587</v>
-      </c>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="11" t="s">
+      <c r="G9" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="26"/>
+      <c r="N9" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="11" t="s">
+    <row r="10" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="48"/>
+      <c r="B10" s="26" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="11" t="n">
+      <c r="E10" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G10" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11" t="n">
+      <c r="H10" s="29"/>
+      <c r="I10" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="11" t="n">
+      <c r="M10" s="26"/>
+      <c r="N10" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" s="11" t="s">
+      <c r="AE10" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="48"/>
+      <c r="B11" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="11" t="n">
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE5" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="12" t="n">
-        <v>0.413</v>
-      </c>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17"/>
-      <c r="B9" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="F9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
-      <c r="B10" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17"/>
-      <c r="B11" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="F11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="L11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="11" t="s">
+      <c r="AE11" s="29" t="s">
         <v>40</v>
       </c>
     </row>
@@ -17378,48 +17960,48 @@
   </sheetPr>
   <dimension ref="1:18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N12" activeCellId="1" sqref="N8:W8 N12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N12" activeCellId="1" sqref="H4:H5 N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="24.8502024291498"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="74.0202429149798"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="74.6599190283401"/>
     <col collapsed="false" hidden="false" max="1023" min="32" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="9" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -17459,7 +18041,7 @@
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="53" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -17513,184 +18095,184 @@
       <c r="AE1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10" t="n">
+    <row r="2" s="4" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="11" t="n">
+      <c r="F2" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="11" t="n">
+      <c r="G2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="12" t="n">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="36" t="n">
         <v>0.3825</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="11" t="s">
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11" t="n">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AE2" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AMJ2" s="1"/>
     </row>
-    <row r="3" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="n">
+    <row r="3" s="4" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="12" t="n">
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="36" t="n">
         <v>0.6175</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="11" t="s">
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11" t="n">
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AMJ3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-      <c r="B4" s="10" t="n">
+    <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="28"/>
+      <c r="B4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="n">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11" t="s">
+      <c r="H4" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="12" t="n">
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="36" t="n">
         <v>0.6559</v>
       </c>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11" t="s">
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="11" t="s">
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF4" s="0"/>
@@ -18687,70 +19269,70 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="10" t="n">
+    <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28"/>
+      <c r="B5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11" t="n">
+      <c r="H5" s="26"/>
+      <c r="I5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11" t="s">
+      <c r="M5" s="26"/>
+      <c r="N5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11" t="s">
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11" t="s">
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11" t="n">
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE5" s="11" t="s">
+      <c r="AE5" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF5" s="0"/>
@@ -19747,70 +20329,70 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="10" t="n">
+    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28"/>
+      <c r="B6" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="F6" s="11" t="n">
+      <c r="F6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11" t="n">
+      <c r="H6" s="26"/>
+      <c r="I6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="L6" s="11" t="n">
+      <c r="L6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11" t="s">
+      <c r="M6" s="26"/>
+      <c r="N6" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11" t="s">
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11" t="s">
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11" t="n">
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AE6" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF6" s="0"/>
@@ -20807,70 +21389,70 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="10" t="n">
+    <row r="7" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28"/>
+      <c r="B7" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11" t="n">
+      <c r="H7" s="26"/>
+      <c r="I7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="11" t="s">
+      <c r="J7" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="11" t="n">
+      <c r="L7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="O7" s="11" t="s">
+      <c r="M7" s="26"/>
+      <c r="N7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="O7" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="11" t="s">
+      <c r="P7" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="11" t="n">
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE7" s="11" t="s">
+      <c r="AE7" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF7" s="4"/>
@@ -21867,121 +22449,121 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" s="1" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17"/>
-      <c r="B8" s="10" t="n">
+    <row r="8" s="1" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="48"/>
+      <c r="B8" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11" t="n">
+      <c r="F8" s="26"/>
+      <c r="G8" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" s="11" t="s">
+      <c r="H8" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="12" t="n">
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="36" t="n">
         <v>0.1376</v>
       </c>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="11" t="s">
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="11" t="s">
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="10" t="n">
+    <row r="9" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="28"/>
+      <c r="B9" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11" t="n">
+      <c r="H9" s="26"/>
+      <c r="I9" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" s="11" t="s">
+      <c r="J9" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="11" t="n">
+      <c r="L9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="O9" s="11" t="s">
+      <c r="M9" s="26"/>
+      <c r="N9" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11" t="s">
+      <c r="P9" s="26"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11" t="n">
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE9" s="11" t="s">
+      <c r="AE9" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF9" s="0"/>
@@ -22978,591 +23560,591 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" s="40" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="37" t="n">
+    <row r="10" s="57" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="23" t="n">
         <v>12</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="38" t="s">
+      <c r="C10" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="38" t="n">
+      <c r="E10" s="24" t="n">
         <v>24</v>
       </c>
-      <c r="F10" s="38" t="n">
+      <c r="F10" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="38" t="n">
+      <c r="G10" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38" t="n">
+      <c r="H10" s="23"/>
+      <c r="I10" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" s="38" t="s">
+      <c r="J10" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="38" t="n">
+      <c r="L10" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="O10" s="38" t="s">
+      <c r="M10" s="23"/>
+      <c r="N10" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38" t="s">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38" t="n">
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="AE10" s="38" t="s">
+      <c r="AE10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AMJ10" s="41"/>
+      <c r="AMJ10" s="58"/>
     </row>
-    <row r="11" s="40" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="37" t="n">
+    <row r="11" s="57" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="23" t="n">
         <v>13</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="38" t="s">
+      <c r="C11" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="38" t="n">
+      <c r="E11" s="24" t="n">
         <v>25</v>
       </c>
-      <c r="F11" s="38" t="n">
+      <c r="F11" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="38" t="n">
+      <c r="G11" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38" t="n">
+      <c r="H11" s="23"/>
+      <c r="I11" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="J11" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="K11" s="38" t="s">
+      <c r="J11" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="L11" s="38" t="n">
+      <c r="L11" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="O11" s="38" t="s">
+      <c r="M11" s="23"/>
+      <c r="N11" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38" t="s">
+      <c r="P11" s="23"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38" t="n">
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="AE11" s="38" t="s">
+      <c r="AE11" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AMJ11" s="41"/>
+      <c r="AMJ11" s="58"/>
     </row>
-    <row r="12" s="40" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="37" t="n">
+    <row r="12" s="57" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="38" t="s">
+      <c r="C12" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="38" t="n">
+      <c r="E12" s="24" t="n">
         <v>26</v>
       </c>
-      <c r="F12" s="38" t="n">
+      <c r="F12" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="38" t="n">
+      <c r="G12" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38" t="n">
+      <c r="H12" s="23"/>
+      <c r="I12" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="J12" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="K12" s="38" t="s">
+      <c r="J12" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="38" t="n">
+      <c r="L12" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="M12" s="37"/>
-      <c r="N12" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="O12" s="38" t="s">
+      <c r="M12" s="23"/>
+      <c r="N12" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38" t="s">
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38" t="n">
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="AE12" s="38" t="s">
+      <c r="AE12" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AMJ12" s="41"/>
+      <c r="AMJ12" s="58"/>
     </row>
-    <row r="13" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-      <c r="B13" s="28" t="n">
+    <row r="13" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="28"/>
+      <c r="B13" s="43" t="n">
         <v>15</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="29" t="n">
         <v>18</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11" t="n">
+      <c r="F13" s="26"/>
+      <c r="G13" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11" t="s">
+      <c r="H13" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="12" t="n">
+      <c r="L13" s="28"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="36" t="n">
         <v>0.2065</v>
       </c>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11" t="s">
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="11" t="s">
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-      <c r="B14" s="28" t="n">
+    <row r="14" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28"/>
+      <c r="B14" s="43" t="n">
         <v>16</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="11" t="n">
+      <c r="E14" s="29" t="n">
         <v>19</v>
       </c>
-      <c r="F14" s="11" t="n">
+      <c r="F14" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="11" t="n">
+      <c r="G14" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11" t="n">
+      <c r="H14" s="29"/>
+      <c r="I14" s="29" t="n">
         <v>18</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="L14" s="11" t="n">
+      <c r="L14" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11" t="s">
+      <c r="M14" s="29"/>
+      <c r="N14" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11" t="s">
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11" t="s">
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11" t="n">
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE14" s="11" t="s">
+      <c r="AE14" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-      <c r="B15" s="28" t="n">
+    <row r="15" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="28"/>
+      <c r="B15" s="43" t="n">
         <v>17</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="29" t="n">
         <v>20</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="11" t="n">
+      <c r="G15" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11" t="n">
+      <c r="H15" s="29"/>
+      <c r="I15" s="29" t="n">
         <v>18</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="11" t="n">
+      <c r="L15" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11" t="s">
+      <c r="M15" s="29"/>
+      <c r="N15" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="O15" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="P15" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11" t="s">
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11" t="s">
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11" t="n">
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE15" s="11" t="s">
+      <c r="AE15" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-      <c r="B16" s="28" t="n">
+    <row r="16" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="28"/>
+      <c r="B16" s="43" t="n">
         <v>18</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="11" t="n">
+      <c r="E16" s="29" t="n">
         <v>21</v>
       </c>
-      <c r="F16" s="11" t="n">
+      <c r="F16" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="11" t="n">
+      <c r="G16" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11" t="n">
+      <c r="H16" s="29"/>
+      <c r="I16" s="29" t="n">
         <v>18</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="11" t="n">
+      <c r="L16" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11" t="s">
+      <c r="M16" s="29"/>
+      <c r="N16" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11" t="s">
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11" t="s">
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11" t="n">
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE16" s="11" t="s">
+      <c r="AE16" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
-      <c r="B17" s="28" t="n">
+    <row r="17" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="28"/>
+      <c r="B17" s="43" t="n">
         <v>19</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="11" t="n">
+      <c r="E17" s="29" t="n">
         <v>22</v>
       </c>
-      <c r="F17" s="11" t="n">
+      <c r="F17" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11" t="n">
+      <c r="H17" s="29"/>
+      <c r="I17" s="29" t="n">
         <v>18</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="L17" s="11" t="n">
+      <c r="L17" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11" t="s">
+      <c r="M17" s="29"/>
+      <c r="N17" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="O17" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11" t="s">
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11" t="s">
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11" t="n">
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE17" s="11" t="s">
+      <c r="AE17" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="28" t="n">
+    <row r="18" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="28"/>
+      <c r="B18" s="43" t="n">
         <v>20</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="11" t="n">
+      <c r="E18" s="29" t="n">
         <v>23</v>
       </c>
-      <c r="F18" s="11" t="n">
+      <c r="F18" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="11" t="n">
+      <c r="G18" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11" t="n">
+      <c r="H18" s="29"/>
+      <c r="I18" s="29" t="n">
         <v>18</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="L18" s="11" t="n">
+      <c r="L18" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11" t="s">
+      <c r="M18" s="29"/>
+      <c r="N18" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11" t="s">
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11" t="s">
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11" t="n">
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE18" s="11" t="s">
+      <c r="AE18" s="29" t="s">
         <v>40</v>
       </c>
     </row>
@@ -23585,10 +24167,10 @@
   <dimension ref="1:12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="N8:W8 A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="H4:H5 A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.497975708502"/>
@@ -23597,36 +24179,36 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="32.8866396761134"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="72.0890688259109"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="72.7327935222672"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="34.8137651821862"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="56.0242914979757"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="2" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="75.7327935222672"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="76.4817813765182"/>
     <col collapsed="false" hidden="false" max="36" min="32" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1023" min="37" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="9" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -23726,178 +24308,178 @@
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10" t="n">
+    <row r="2" s="4" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="11" t="n">
+      <c r="F2" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="11" t="n">
+      <c r="G2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="12" t="n">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="36" t="n">
         <v>0.5</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="11" t="s">
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11" t="n">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AE2" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AMJ2" s="1"/>
     </row>
-    <row r="3" s="4" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="n">
+    <row r="3" s="4" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="12" t="n">
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="36" t="n">
         <v>0.5</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="11" t="s">
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11" t="n">
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AMJ3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-      <c r="B4" s="10" t="n">
+    <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="28"/>
+      <c r="B4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11" t="n">
+      <c r="F4" s="26"/>
+      <c r="G4" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11" t="s">
+      <c r="H4" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="12" t="n">
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="36" t="n">
         <v>0.096</v>
       </c>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="11" t="s">
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="11" t="s">
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF4" s="0"/>
@@ -24894,70 +25476,70 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="10" t="n">
+    <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28"/>
+      <c r="B5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11" t="n">
+      <c r="H5" s="26"/>
+      <c r="I5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11" t="s">
+      <c r="M5" s="26"/>
+      <c r="N5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="11" t="s">
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="11" t="s">
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="11" t="n">
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE5" s="11" t="s">
+      <c r="AE5" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF5" s="0"/>
@@ -25954,70 +26536,70 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="10" t="n">
+    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28"/>
+      <c r="B6" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="F6" s="11" t="n">
+      <c r="F6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11" t="n">
+      <c r="H6" s="26"/>
+      <c r="I6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="L6" s="11" t="n">
+      <c r="L6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11" t="s">
+      <c r="M6" s="26"/>
+      <c r="N6" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="11" t="s">
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="11" t="s">
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="11" t="n">
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AE6" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF6" s="0"/>
@@ -27014,70 +27596,70 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="10" t="n">
+    <row r="7" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28"/>
+      <c r="B7" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11" t="n">
+      <c r="H7" s="26"/>
+      <c r="I7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="11" t="s">
+      <c r="J7" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="11" t="n">
+      <c r="L7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="O7" s="11" t="s">
+      <c r="M7" s="26"/>
+      <c r="N7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="O7" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="11" t="s">
+      <c r="P7" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="11" t="n">
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE7" s="11" t="s">
+      <c r="AE7" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF7" s="0"/>
@@ -28074,58 +28656,58 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="10" t="n">
+    <row r="8" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="28"/>
+      <c r="B8" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11" t="n">
+      <c r="F8" s="26"/>
+      <c r="G8" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" s="11" t="s">
+      <c r="H8" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="12" t="n">
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="36" t="n">
         <v>0.904</v>
       </c>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="11" t="s">
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="11" t="s">
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF8" s="0"/>
@@ -29122,66 +29704,66 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="10" t="n">
+    <row r="9" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="28"/>
+      <c r="B9" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="29" t="n">
         <v>6</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="n">
+      <c r="H9" s="29"/>
+      <c r="I9" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" s="19" t="s">
+      <c r="J9" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="11" t="n">
+      <c r="L9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="O9" s="11" t="s">
+      <c r="M9" s="26"/>
+      <c r="N9" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="11" t="s">
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="11" t="n">
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE9" s="11" t="s">
+      <c r="AE9" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF9" s="0"/>
@@ -30178,66 +30760,66 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="10" t="n">
+    <row r="10" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="28"/>
+      <c r="B10" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="n">
+      <c r="H10" s="29"/>
+      <c r="I10" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="K10" s="19" t="s">
+      <c r="J10" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="11" t="n">
+      <c r="L10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="O10" s="11" t="s">
+      <c r="M10" s="26"/>
+      <c r="N10" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="11" t="s">
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="11" t="n">
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE10" s="11" t="s">
+      <c r="AE10" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF10" s="0"/>
@@ -31234,66 +31816,66 @@
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="10" t="n">
+    <row r="11" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="28"/>
+      <c r="B11" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="29" t="n">
         <v>9</v>
       </c>
-      <c r="F11" s="11" t="n">
+      <c r="F11" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11" t="n">
+      <c r="H11" s="29"/>
+      <c r="I11" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="J11" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="K11" s="19" t="s">
+      <c r="J11" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="O11" s="11" t="s">
+      <c r="M11" s="26"/>
+      <c r="N11" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="11" t="s">
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="11" t="n">
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AE11" s="11" t="s">
+      <c r="AE11" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AF11" s="0"/>
@@ -32290,76 +32872,76 @@
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" s="40" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="37" t="n">
+    <row r="12" s="57" customFormat="true" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="23" t="n">
         <v>13</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="38" t="s">
+      <c r="C12" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="38" t="n">
+      <c r="E12" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="F12" s="38" t="n">
+      <c r="F12" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="38" t="n">
+      <c r="G12" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38" t="n">
+      <c r="H12" s="24"/>
+      <c r="I12" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="J12" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="K12" s="42" t="s">
+      <c r="J12" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="38" t="n">
+      <c r="L12" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="M12" s="37"/>
-      <c r="N12" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="O12" s="38" t="s">
+      <c r="M12" s="23"/>
+      <c r="N12" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="O12" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="38" t="s">
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="38" t="n">
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="AE12" s="38" t="s">
+      <c r="AE12" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="44"/>
-      <c r="AH12" s="44"/>
-      <c r="AI12" s="44"/>
-      <c r="AJ12" s="44"/>
-      <c r="AMJ12" s="41"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="59"/>
+      <c r="AJ12" s="59"/>
+      <c r="AMJ12" s="58"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
